--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.297</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.306</v>
+        <v>28.284</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.448</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.839</v>
+        <v>28.174</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.448</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.362</v>
+        <v>27.869</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.080820667286396</v>
+        <v>27.09102274705758</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.53684468894276</v>
+        <v>27.09102276915854</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.29960022256974</v>
+        <v>27.09102277591003</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.673761880526051</v>
+        <v>27.09102275424731</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.3347405227242</v>
+        <v>27.09102277868084</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.49459178270712</v>
+        <v>27.09102278614489</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.57310248442607</v>
+        <v>27.09102276104043</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.64234758740107</v>
+        <v>27.09102278242441</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.28008038006663</v>
+        <v>27.09102278895687</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.30157446813113</v>
+        <v>27.09102277954168</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.49329477621896</v>
+        <v>27.09102280308102</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.6911086346925</v>
+        <v>27.09102281055826</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.63612376386049</v>
+        <v>27.09102277550308</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.09631103501956</v>
+        <v>27.09102280913571</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.83057831976166</v>
+        <v>27.09102281940993</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.27130046464645</v>
+        <v>27.09102278796946</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.93659350569713</v>
+        <v>27.09102281160506</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.08599279479813</v>
+        <v>27.09102281884659</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.404137388050252</v>
+        <v>27.09102279637395</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.40189608775266</v>
+        <v>27.09102282250409</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.98924541724529</v>
+        <v>27.0910228305099</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.09280377704505</v>
+        <v>27.09102280446197</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.33115720431469</v>
+        <v>27.09102282733081</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.62339182251885</v>
+        <v>27.09102276299589</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.33392098527721</v>
+        <v>27.09102278549109</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.13413942487631</v>
+        <v>27.09102279219306</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.76777277920996</v>
+        <v>27.0910227716612</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.71002009849259</v>
+        <v>27.09102279653059</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.91125893999579</v>
+        <v>27.09102280393989</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.79762436967308</v>
+        <v>27.09102277874195</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.11283653921349</v>
+        <v>27.09102280050739</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.78676199471929</v>
+        <v>27.09102280699193</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.71765094080741</v>
+        <v>27.09102279743493</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.15538983515455</v>
+        <v>27.09102282132601</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.40500799103274</v>
+        <v>27.09102282875137</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.85594307272387</v>
+        <v>27.09102279277749</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.70389679313283</v>
+        <v>27.09102282701006</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.49522657299329</v>
+        <v>27.09102283720893</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.28408781408808</v>
+        <v>27.09102280539298</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.22287341348961</v>
+        <v>27.09102282944675</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.41477507760954</v>
+        <v>27.09102283663716</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>14.0049462146917</v>
+        <v>27.09102281538144</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.30496143553721</v>
+        <v>27.09102284197388</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.939269273433</v>
+        <v>27.09102284992317</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.3443368502688</v>
+        <v>27.09102284705614</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.24241580906691</v>
+        <v>27.09102276606189</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.91485908716282</v>
+        <v>27.09102278845436</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.68691976473951</v>
+        <v>27.09102279510056</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.53857901021316</v>
+        <v>27.09102277497521</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.43872609515912</v>
+        <v>27.09102279973101</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.60883294798275</v>
+        <v>27.09102280707866</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.56649691885902</v>
+        <v>27.09102278203656</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.84491566089673</v>
+        <v>27.09102280370259</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.49161546490893</v>
+        <v>27.09102281013318</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.46317880303579</v>
+        <v>27.09102280059681</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.86433036133873</v>
+        <v>27.09102282436386</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.08462116370691</v>
+        <v>27.09102283172862</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.58878350759573</v>
+        <v>27.0910227958573</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37.3786514887347</v>
+        <v>27.09102282993353</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.12706947842429</v>
+        <v>27.09102284004753</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.00408485541949</v>
+        <v>27.09102280839005</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.89919410684562</v>
+        <v>27.09102283233264</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.06097119297768</v>
+        <v>27.09102283946425</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15.88890627070002</v>
+        <v>27.09102281863585</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.14063982384462</v>
+        <v>27.09102284510538</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.74164141236302</v>
+        <v>27.09102285298967</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.72198963521537</v>
+        <v>27.09102282701087</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.18246474477288</v>
+        <v>27.09102285017674</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>15.16468045014194</v>
+        <v>27.0910227505829</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.92895075714176</v>
+        <v>27.09102277294545</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.72834466038972</v>
+        <v>27.09102277973913</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>14.16192336123317</v>
+        <v>27.09102275829872</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.16352379419092</v>
+        <v>27.09102278302144</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.36387643103402</v>
+        <v>27.09102279053213</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.33829094392093</v>
+        <v>27.09102276519435</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.70535792440723</v>
+        <v>27.09102278683143</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.37850035710817</v>
+        <v>27.09102279340471</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.26558446487496</v>
+        <v>27.09102278384383</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.76364976795043</v>
+        <v>27.09102280763911</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.00476574193175</v>
+        <v>27.09102281516492</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>21.22386250411013</v>
+        <v>27.0910227795993</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>39.15376040671959</v>
+        <v>27.09102281362999</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.94387439138279</v>
+        <v>27.09102282396842</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>18.83380326256606</v>
+        <v>27.09102279217528</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.83913738417889</v>
+        <v>27.0910228160891</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.0339315909237</v>
+        <v>27.09102282337715</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>17.39116758397912</v>
+        <v>27.09102280114537</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.7646865772243</v>
+        <v>27.0910228275831</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.40222192612754</v>
+        <v>27.09102283564033</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24.38449515121829</v>
+        <v>27.09102280934974</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.9514013319541</v>
+        <v>27.09102283248778</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.34257690908603</v>
+        <v>27.09102283433742</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.87805034339439</v>
+        <v>27.09102282325951</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>37.37493840735392</v>
+        <v>27.0910228484637</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.05426506071164</v>
+        <v>27.091022856492</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>17.8722552312449</v>
+        <v>27.09102281742206</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>37.17463031515275</v>
+        <v>27.09102285339005</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.49869746577215</v>
+        <v>27.09102286441001</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>18.06618677751134</v>
+        <v>27.09102284169742</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.87822287968801</v>
+        <v>27.09102286469341</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.08650506986191</v>
+        <v>27.09102287164605</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>16.95788277615539</v>
+        <v>27.09102285117753</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.11809196597354</v>
+        <v>27.09102287660056</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.77060285463575</v>
+        <v>27.09102288428699</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.03913449093847</v>
+        <v>27.09102285991789</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>36.41981298231514</v>
+        <v>27.09102288216786</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.48813734006672</v>
+        <v>27.09102288889495</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.38779903856766</v>
+        <v>27.09102287724459</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.07897274384005</v>
+        <v>27.09102290174258</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>50.86967732263525</v>
+        <v>27.09102290935888</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.4319543519504</v>
+        <v>27.09102286973485</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.95767770676895</v>
+        <v>27.0910229047295</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.37168850303157</v>
+        <v>27.09102291530983</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.39681959051428</v>
+        <v>27.09102285401328</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.83036165490655</v>
+        <v>27.09102284276179</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.5915018181997</v>
+        <v>27.09102286833875</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.328829499428</v>
+        <v>27.09102287631244</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.61435907194143</v>
+        <v>27.0910228362577</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.3334292277666</v>
+        <v>27.09102287286205</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.72224429025667</v>
+        <v>27.09102288380421</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.48523143392511</v>
+        <v>27.09102285923632</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.56581751369172</v>
+        <v>27.09102288263341</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.81379202769537</v>
+        <v>27.09102288953126</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.98228036834777</v>
+        <v>27.09102287024275</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.43928861093</v>
+        <v>27.09102289610922</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.13565660904715</v>
+        <v>27.09102290373508</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.22042914092975</v>
+        <v>27.09102287929321</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.86065517032522</v>
+        <v>27.09102290193128</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.96733107004644</v>
+        <v>27.09102290860535</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.77131470877579</v>
+        <v>27.09102289677406</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.72163120033194</v>
+        <v>27.09102292162807</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.56663108442976</v>
+        <v>27.09102292918615</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.59816268359245</v>
+        <v>27.09102288860143</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>51.53305892770884</v>
+        <v>27.09102292420648</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>58.0075402581389</v>
+        <v>27.09102293470343</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.20582128721649</v>
+        <v>27.09102285707699</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>31.68315744185479</v>
+        <v>27.09102284585162</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.40124552657365</v>
+        <v>27.09102287129423</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.10662323815876</v>
+        <v>27.09102287920375</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.45395857631746</v>
+        <v>27.09102283927158</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>44.10642547417675</v>
+        <v>27.09102287570674</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.1513514737752</v>
+        <v>27.09102286188356</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>37.18607708504496</v>
+        <v>27.09102288517264</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.40283813886273</v>
+        <v>27.09102289201241</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.80633111277477</v>
+        <v>27.09102287312636</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.21264311955727</v>
+        <v>27.09102289887341</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>42.87450113965991</v>
+        <v>27.09102290643505</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.03794023240531</v>
+        <v>27.09102288214627</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.63385244392383</v>
+        <v>27.09102290467983</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>47.71035022278141</v>
+        <v>27.09102291129771</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>40.55693007524784</v>
+        <v>27.09102289949578</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>53.46153742761521</v>
+        <v>27.09102292421906</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>58.27264551992944</v>
+        <v>27.09102293171459</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.37187497158895</v>
+        <v>27.0910228912588</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>53.23684436163866</v>
+        <v>27.09102292669947</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>59.66375448106913</v>
+        <v>27.09102293710803</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>41.00669580705878</v>
+        <v>27.09102283953939</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.40118926984676</v>
+        <v>27.09102282829195</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.23826008198916</v>
+        <v>27.09102285376822</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>50.97067060728725</v>
+        <v>27.09102286184978</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.00237908160396</v>
+        <v>27.09102282222332</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.82289220517646</v>
+        <v>27.09102285861471</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>52.2161690688297</v>
+        <v>27.09102286970545</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.36491394485013</v>
+        <v>27.0910228463802</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.51766477517786</v>
+        <v>27.09102286964712</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>42.77206875139976</v>
+        <v>27.09102287664222</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.681317838389</v>
+        <v>27.09102285641646</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.21803896135884</v>
+        <v>27.091022882139</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>43.92154242427302</v>
+        <v>27.09102288987238</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.0681479547861</v>
+        <v>27.09102286527849</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.77804083995975</v>
+        <v>27.0910228877906</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>48.89094346804411</v>
+        <v>27.09102289455878</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.66105519957507</v>
+        <v>27.09102288273271</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>54.69370548944619</v>
+        <v>27.0910229074949</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>59.53775363904538</v>
+        <v>27.09102291515953</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>34.32979015282729</v>
+        <v>27.0910228749779</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>54.3746761793661</v>
+        <v>27.09102291038483</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.85901335572879</v>
+        <v>27.09102292102978</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>13.02031784856629</v>
+        <v>27.09102274493582</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.65402541674863</v>
+        <v>27.09102276723834</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.24693688232043</v>
+        <v>27.09102277386773</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>11.45325058880587</v>
+        <v>27.09102275152259</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.31064321353071</v>
+        <v>27.09102277617896</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.28284657678616</v>
+        <v>27.09102278350802</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.50846236117801</v>
+        <v>27.09102275846494</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.7494735166218</v>
+        <v>27.09102278004395</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>32.22303629076038</v>
+        <v>27.09102278645827</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.09774638187616</v>
+        <v>27.09102277676001</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.42007923283522</v>
+        <v>27.09102280045647</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.42407509565237</v>
+        <v>27.09102280777311</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>18.03249393214892</v>
+        <v>27.09102277250052</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.76358151614662</v>
+        <v>27.09102280643987</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>41.23926586665324</v>
+        <v>27.09102281652828</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.54695800613628</v>
+        <v>27.09102278588761</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.39912557409138</v>
+        <v>27.0910228097366</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.35684939625104</v>
+        <v>27.09102281684202</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>14.50722158947182</v>
+        <v>27.09102279370467</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.71154984371835</v>
+        <v>27.09102282007072</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.08710628063264</v>
+        <v>27.09102282792605</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.38084982296263</v>
+        <v>27.09102280196494</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.79985287293087</v>
+        <v>27.09102282504024</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.44535038142808</v>
+        <v>27.09102276063509</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.33535528934735</v>
+        <v>27.09102278332763</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.96138983340834</v>
+        <v>27.09102278991181</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15.41801121780125</v>
+        <v>27.09102276867469</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.5586528346186</v>
+        <v>27.09102279376223</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>32.56744984962101</v>
+        <v>27.09102280104132</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.60039457277585</v>
+        <v>27.09102277589321</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.08910541256064</v>
+        <v>27.09102279784957</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.59466738955371</v>
+        <v>27.09102280422016</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.38134456128341</v>
+        <v>27.09102279437366</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.9509078753744</v>
+        <v>27.09102281841702</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>45.00171438732588</v>
+        <v>27.0910228256881</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.12106522231086</v>
+        <v>27.0910227895005</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.24264956359002</v>
+        <v>27.09102282403336</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>45.76878899867133</v>
+        <v>27.09102283405299</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>20.44164704002387</v>
+        <v>27.0910228030668</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.56921844650686</v>
+        <v>27.09102282732913</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>37.56470749407436</v>
+        <v>27.09102283438776</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>18.97845297150499</v>
+        <v>27.09102281244416</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.48714939898781</v>
+        <v>27.09102283926717</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>37.90443135931351</v>
+        <v>27.09102284707078</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.99690006355538</v>
+        <v>27.09102282100575</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.68207220517521</v>
+        <v>27.09102284448098</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.99937923862006</v>
+        <v>27.09102276364925</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.84998914652802</v>
+        <v>27.09102278623652</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.44872889974144</v>
+        <v>27.09102279276661</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.12088106381089</v>
+        <v>27.09102277193677</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.21797558316505</v>
+        <v>27.09102279690794</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.19659425933555</v>
+        <v>27.09102280412722</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.29954821819003</v>
+        <v>27.09102277913162</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.75020019990092</v>
+        <v>27.09102280098613</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>38.22937106517747</v>
+        <v>27.09102280730438</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.05721127604257</v>
+        <v>27.09102279748049</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.58898297937326</v>
+        <v>27.09102282139743</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.61156255964872</v>
+        <v>27.09102282861042</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.78749661730044</v>
+        <v>27.09102279252876</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>41.84900047784607</v>
+        <v>27.09102282690144</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>47.33354176676936</v>
+        <v>27.09102283683875</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.09350487022662</v>
+        <v>27.09102280601088</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.17600439036384</v>
+        <v>27.09102283015947</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39.14235264893793</v>
+        <v>27.09102283716095</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.79153713932272</v>
+        <v>27.09102281564538</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.25040949185713</v>
+        <v>27.09102284234265</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>39.63547251918762</v>
+        <v>27.09102285008307</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.80433567001637</v>
+        <v>27.0910228241762</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>40.44595913213696</v>
+        <v>27.09102284754139</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>20.16096967751668</v>
+        <v>27.09102274834119</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.10603656650922</v>
+        <v>27.09102277090544</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.7329243721481</v>
+        <v>27.09102277757694</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.98223876084946</v>
+        <v>27.09102275544268</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.18369508687783</v>
+        <v>27.09102278038839</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.19345933952907</v>
+        <v>27.09102278776401</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.31654982579808</v>
+        <v>27.09102276248372</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.85839151507651</v>
+        <v>27.09102278431596</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>40.36479215674206</v>
+        <v>27.09102279077104</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.09557935931259</v>
+        <v>27.09102278092456</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.72562136963848</v>
+        <v>27.09102280487646</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>48.77052643887346</v>
+        <v>27.0910228122421</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.64577520765247</v>
+        <v>27.09102277646016</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>43.85132519219698</v>
+        <v>27.0910228107978</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>49.37880180534108</v>
+        <v>27.0910228209503</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>24.17151106307076</v>
+        <v>27.09102278997135</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.36670572668191</v>
+        <v>27.09102281409885</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>41.36674662825822</v>
+        <v>27.0910228212504</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.54044627739287</v>
+        <v>27.09102279834289</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.12383612212699</v>
+        <v>27.09102282501684</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.54617827336779</v>
+        <v>27.09102283292318</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.72125860707402</v>
+        <v>27.09102280671572</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>42.47170021299773</v>
+        <v>27.09102283006049</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>37.6259873238411</v>
+        <v>27.09102283191515</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.0608273179247</v>
+        <v>27.09102282061434</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>42.69232692201715</v>
+        <v>27.09102284597688</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>47.14958753528853</v>
+        <v>27.09102285382592</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.6669324300489</v>
+        <v>27.09102281458308</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.25421403538084</v>
+        <v>27.09102285087579</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>48.28640303223479</v>
+        <v>27.09102286168862</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.34749992069414</v>
+        <v>27.09102284053787</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.34603440914231</v>
+        <v>27.09102286374687</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.36523885321651</v>
+        <v>27.09102287055722</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.04810569689169</v>
+        <v>27.09102284952889</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.41447921470733</v>
+        <v>27.09102287518741</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>40.85804943287491</v>
+        <v>27.09102288271653</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.34477756024177</v>
+        <v>27.09102285846145</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>41.90574762415122</v>
+        <v>27.09102288091752</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>45.79129009802257</v>
+        <v>27.09102288750694</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.62316321593805</v>
+        <v>27.09102287568732</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>51.44463240224346</v>
+        <v>27.09102290033717</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>56.01688846204163</v>
+        <v>27.09102290777491</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.29947375021643</v>
+        <v>27.09102286798716</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>51.10956084874816</v>
+        <v>27.09102290330597</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>57.23559626225328</v>
+        <v>27.09102291366977</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.54469215190332</v>
+        <v>27.09102285131062</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.88099008113555</v>
+        <v>27.09102283983115</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>47.77798806965288</v>
+        <v>27.09102286556097</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.28778162605162</v>
+        <v>27.09102287336186</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.27823615037331</v>
+        <v>27.09102283313903</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>47.285124007574</v>
+        <v>27.09102287006075</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>53.37484824139872</v>
+        <v>27.09102288080238</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.65889996632788</v>
+        <v>27.09102285786117</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>40.92808593958856</v>
+        <v>27.09102288146662</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>44.98201401051928</v>
+        <v>27.09102288822565</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.95516626816958</v>
+        <v>27.09102286835767</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.62066089822788</v>
+        <v>27.09102289445448</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>46.10259886632058</v>
+        <v>27.09102290192687</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.40590553157728</v>
+        <v>27.09102287758908</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>47.22845480487756</v>
+        <v>27.09102290042874</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>51.14754723922319</v>
+        <v>27.0910229069685</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>43.88796736088008</v>
+        <v>27.0910228949647</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>56.96997187363991</v>
+        <v>27.09102291996563</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>61.5908224000014</v>
+        <v>27.09102292735043</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.34855154095639</v>
+        <v>27.09102288660731</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>56.57101313093152</v>
+        <v>27.09102292252943</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>62.74995242884656</v>
+        <v>27.09102293281513</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.28040429485443</v>
+        <v>27.09102285431572</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.66081297108991</v>
+        <v>27.09102284286389</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>49.51346564623952</v>
+        <v>27.09102286845703</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>53.99258543980526</v>
+        <v>27.09102287619626</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.04808331567744</v>
+        <v>27.09102283609904</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>48.98624136371801</v>
+        <v>27.09102287284768</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>55.03155238869017</v>
+        <v>27.09102288350233</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.25828306949746</v>
+        <v>27.09102286045282</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.48019525035018</v>
+        <v>27.09102288394794</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>46.50382571323505</v>
+        <v>27.09102289065036</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.71028516590016</v>
+        <v>27.09102287118537</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.32352135698198</v>
+        <v>27.0910228971602</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>47.7719616360243</v>
+        <v>27.09102290457001</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.15230145303562</v>
+        <v>27.09102288038173</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>48.92917069861264</v>
+        <v>27.09102290311464</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>52.81897072356842</v>
+        <v>27.09102290959963</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>45.60239155583145</v>
+        <v>27.09102289762644</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>58.63739976828798</v>
+        <v>27.09102292249471</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>63.22558238073979</v>
+        <v>27.09102292981916</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.05428698463378</v>
+        <v>27.09102288920783</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>58.20466772611688</v>
+        <v>27.09102292496203</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>64.33743061184704</v>
+        <v>27.0910229351616</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>46.33873546373353</v>
+        <v>27.09102283698004</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.62451303681887</v>
+        <v>27.09102282550776</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.59713380166399</v>
+        <v>27.091022851142</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>56.10464334817014</v>
+        <v>27.09102285904437</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.82973808885355</v>
+        <v>27.09102281924651</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.93971577341274</v>
+        <v>27.09102285596306</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>57.03642625685958</v>
+        <v>27.09102286684609</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.70912024817454</v>
+        <v>27.09102284511201</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>44.05103395862159</v>
+        <v>27.09102286859249</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>48.11310666130224</v>
+        <v>27.09102287544457</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.819677136393</v>
+        <v>27.09102285464986</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.56550841665033</v>
+        <v>27.09102288060851</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49.0564762969026</v>
+        <v>27.09102288818377</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.42511869133181</v>
+        <v>27.09102286370072</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>50.31787817731012</v>
+        <v>27.09102288641946</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>54.24485471818605</v>
+        <v>27.09102289304925</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>46.94130432091571</v>
+        <v>27.09102288105275</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>60.10477492374449</v>
+        <v>27.09102290596679</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>64.72747696082989</v>
+        <v>27.09102291345249</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.23536021558951</v>
+        <v>27.0910228731087</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.56867816796657</v>
+        <v>27.09102290884063</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>65.76008316730406</v>
+        <v>27.09102291926793</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>5.59703386696123</v>
+        <v>27.09102274145279</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.20835964623061</v>
+        <v>27.09102276397887</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.035627246675</v>
+        <v>27.09102277087779</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4.001577926991928</v>
+        <v>27.09102274856338</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.83419853625349</v>
+        <v>27.0910227734669</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.06534796010161</v>
+        <v>27.09102278109394</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>9.992022770177718</v>
+        <v>27.09102275546264</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.21130453790429</v>
+        <v>27.09102277725795</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.91138201810045</v>
+        <v>27.09102278393305</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.93116100656383</v>
+        <v>27.09102277444652</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.2516573241914</v>
+        <v>27.09102279844369</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.51977178106133</v>
+        <v>27.09102280608074</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>11.22433258045873</v>
+        <v>27.09102277049386</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.92128213054583</v>
+        <v>27.09102280477342</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.75383984393707</v>
+        <v>27.091022815272</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>8.562920195281944</v>
+        <v>27.09102278311002</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.40459166971496</v>
+        <v>27.09102280720263</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.62894818140028</v>
+        <v>27.09102281460242</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>6.490094543749453</v>
+        <v>27.09102279145982</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.68279491500871</v>
+        <v>27.0910228180952</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.35299078497936</v>
+        <v>27.09102282627597</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>13.2817528967051</v>
+        <v>27.09102279968036</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.69052013639667</v>
+        <v>27.09102282299138</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.17805227305181</v>
+        <v>27.09102275771875</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.04819452935528</v>
+        <v>27.09102278064687</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.91391486020144</v>
+        <v>27.09102278749736</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>8.144123579479238</v>
+        <v>27.09102276633883</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.26277738083748</v>
+        <v>27.09102279168682</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.53640809689024</v>
+        <v>27.09102279926032</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>14.26701074420168</v>
+        <v>27.09102277353166</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.73642608984601</v>
+        <v>27.09102279571596</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.47365264516021</v>
+        <v>27.09102280234422</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.40209753487778</v>
+        <v>27.09102279271261</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.97261346200833</v>
+        <v>27.09102281706845</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.29384203592886</v>
+        <v>27.09102282465481</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>15.49620250061244</v>
+        <v>27.0910227881287</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.58748678471343</v>
+        <v>27.09102282302007</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.47861515590751</v>
+        <v>27.09102283344495</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>12.62299959871863</v>
+        <v>27.0910228009015</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.74289398626982</v>
+        <v>27.09102282542056</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.01087771724771</v>
+        <v>27.09102283277042</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>11.14922153420146</v>
+        <v>27.09102281087155</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.64940610411181</v>
+        <v>27.09102283797839</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.36780352618372</v>
+        <v>27.09102284610396</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>18.09124164109204</v>
+        <v>27.09102281941194</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.76890185687911</v>
+        <v>27.09102284313558</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.84767437166116</v>
+        <v>27.09102276087476</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.67942751644714</v>
+        <v>27.09102278369805</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.516612740241</v>
+        <v>27.09102279049202</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>9.970152954843508</v>
+        <v>27.09102276974944</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.04637117588339</v>
+        <v>27.09102279498153</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.28845288224699</v>
+        <v>27.09102280249255</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.09127683745785</v>
+        <v>27.09102277692257</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.52360602129832</v>
+        <v>27.09102279900544</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.23324227165171</v>
+        <v>27.09102280557901</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.20208386173334</v>
+        <v>27.09102279596726</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.73587493273527</v>
+        <v>27.09102282019651</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.027421888188</v>
+        <v>27.09102282772151</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.28245039882315</v>
+        <v>27.09102279129849</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.31518553633565</v>
+        <v>27.09102282603031</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>41.16282737213137</v>
+        <v>27.09102283636919</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>14.39782658509684</v>
+        <v>27.0910228039896</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.47365921902696</v>
+        <v>27.09102282839521</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.71109350100366</v>
+        <v>27.0910228356855</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>13.09296780181026</v>
+        <v>27.09102281422392</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.54444446986889</v>
+        <v>27.09102284120533</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.22906610436232</v>
+        <v>27.09102284926504</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.03152613772392</v>
+        <v>27.09102282273765</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.66661441824428</v>
+        <v>27.09102284635152</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.81868037078076</v>
+        <v>27.0910227450148</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.74322577055396</v>
+        <v>27.09102276780737</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.60785159693311</v>
+        <v>27.09102277475006</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>11.6362222004222</v>
+        <v>27.09102275266041</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.81496030251725</v>
+        <v>27.09102277785854</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.08740669257154</v>
+        <v>27.09102278553397</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.90938909827101</v>
+        <v>27.0910227596638</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.43129749535873</v>
+        <v>27.09102278171695</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.16748021725972</v>
+        <v>27.09102278843442</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.05187034234957</v>
+        <v>27.0910227787996</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.68322415506282</v>
+        <v>27.09102280305752</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.99552543972072</v>
+        <v>27.09102281074492</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.96155269975682</v>
+        <v>27.09102277463822</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.13579241519536</v>
+        <v>27.09102280932331</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>43.02529422197763</v>
+        <v>27.0910228198885</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.26901365341483</v>
+        <v>27.09102278736859</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.45626702119519</v>
+        <v>27.09102281174468</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.72699622475826</v>
+        <v>27.0910228191927</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>14.62974856216979</v>
+        <v>27.09102279629395</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.20433200617219</v>
+        <v>27.09102282324273</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>33.92579477202805</v>
+        <v>27.09102283147682</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.73227173001106</v>
+        <v>27.09102280463278</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.47494491508334</v>
+        <v>27.09102282821809</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.77437994733614</v>
+        <v>27.09102283015111</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.30952181798029</v>
+        <v>27.09102281897108</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.955603253578</v>
+        <v>27.09102284466604</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>39.71828375781674</v>
+        <v>27.0910228528655</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>15.26831245273313</v>
+        <v>27.09102281318811</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.83955629991575</v>
+        <v>27.09102284985157</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>41.27784411489909</v>
+        <v>27.09102286111235</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.75945396857539</v>
+        <v>27.09102283851555</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.75923843753102</v>
+        <v>27.09102286196042</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.04284058704984</v>
+        <v>27.09102286906016</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.46653847208849</v>
+        <v>27.09102284799525</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.834263721037</v>
+        <v>27.09102287391453</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.57002313377076</v>
+        <v>27.09102288176359</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>21.669287745468</v>
+        <v>27.09102285689072</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.23137957720863</v>
+        <v>27.09102287957501</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.37249730942101</v>
+        <v>27.09102288644442</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.2737386556331</v>
+        <v>27.091022874677</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.12505148670864</v>
+        <v>27.09102289965344</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>49.00143196932648</v>
+        <v>27.0910229074279</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.27410455892191</v>
+        <v>27.09102286716833</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.08602883153279</v>
+        <v>27.09102290284607</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>50.61480617343789</v>
+        <v>27.09102291365025</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.89491164113726</v>
+        <v>27.091022850247</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.32717760779653</v>
+        <v>27.0910228388893</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>40.24190619359896</v>
+        <v>27.09102286496433</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.06405265577624</v>
+        <v>27.09102287311049</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.07265149610501</v>
+        <v>27.091022832426</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.06779703705941</v>
+        <v>27.09102286973841</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.57254697290128</v>
+        <v>27.09102288092322</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.23991751287979</v>
+        <v>27.09102285643403</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.51300854663882</v>
+        <v>27.0910228802878</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>37.83733788777393</v>
+        <v>27.09102288733371</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.56416744571435</v>
+        <v>27.09102286747525</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.2339486541362</v>
+        <v>27.09102289384658</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>39.01470880422005</v>
+        <v>27.09102290163612</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.92651093253565</v>
+        <v>27.09102287668756</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.75274735987333</v>
+        <v>27.09102289976748</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.93321672265606</v>
+        <v>27.09102290658481</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.73802320517726</v>
+        <v>27.09102289463258</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.85288753123815</v>
+        <v>27.09102291997188</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>54.78492271401367</v>
+        <v>27.09102292768917</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.51768644719273</v>
+        <v>27.09102288644731</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>49.74603078624352</v>
+        <v>27.09102292274729</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>56.33685553256126</v>
+        <v>27.09102293346956</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.76308743334017</v>
+        <v>27.0910228534053</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.23885744223143</v>
+        <v>27.09102284207295</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>42.11030911454648</v>
+        <v>27.0910228680109</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>46.90008890689008</v>
+        <v>27.0910228760921</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.9699817374726</v>
+        <v>27.09102283553095</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.89793537187703</v>
+        <v>27.09102287267071</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>48.35612692907597</v>
+        <v>27.09102288376486</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>21.95833597209466</v>
+        <v>27.09102285916235</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.18509043879979</v>
+        <v>27.09102288290591</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>39.4777538076345</v>
+        <v>27.09102288989296</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.44533615360188</v>
+        <v>27.09102287044638</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.06389464248721</v>
+        <v>27.09102289669587</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>40.80964471663869</v>
+        <v>27.09102290442034</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.80119606803791</v>
+        <v>27.09102287962762</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.58265874996161</v>
+        <v>27.09102290260091</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>45.7325126890846</v>
+        <v>27.09102290936129</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>38.57966992534853</v>
+        <v>27.09102289743783</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>51.64850880321457</v>
+        <v>27.09102292264378</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>56.54618447550249</v>
+        <v>27.09102293029772</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>31.34637679517558</v>
+        <v>27.09102288918578</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>51.50406749379231</v>
+        <v>27.09102292531806</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>58.04663178421229</v>
+        <v>27.09102293595075</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.6036244521779</v>
+        <v>27.09102283542448</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.99695925256754</v>
+        <v>27.09102282407182</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>43.98825720228734</v>
+        <v>27.09102285004399</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>48.8052124331751</v>
+        <v>27.09102285829864</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.55541962689629</v>
+        <v>27.0910228180543</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.65324516623915</v>
+        <v>27.09102285514915</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>50.16223376046212</v>
+        <v>27.09102286648333</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.2009668262329</v>
+        <v>27.0910228432678</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.54713770352221</v>
+        <v>27.09102286698878</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>40.87779041815106</v>
+        <v>27.09102287413251</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.34173519922301</v>
+        <v>27.09102285331394</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.09223999651933</v>
+        <v>27.09102287953847</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>41.88001874722872</v>
+        <v>27.09102288743615</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.85647619470209</v>
+        <v>27.09102286233328</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.75326231938696</v>
+        <v>27.09102288528473</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>46.93985594662095</v>
+        <v>27.0910228921967</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.71099432305937</v>
+        <v>27.09102288025043</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.90892367496893</v>
+        <v>27.09102290549611</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>57.83979492267889</v>
+        <v>27.09102291332061</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>32.32890431829032</v>
+        <v>27.09102287249283</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>52.66863460572964</v>
+        <v>27.09102290859075</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>59.26915471185774</v>
+        <v>27.09102291946187</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>6.641263610615734</v>
+        <v>27.09102274441291</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.7530460764352</v>
+        <v>27.0910227659676</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.39235394114438</v>
+        <v>27.09102277255241</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>5.073011274298725</v>
+        <v>27.09102275112349</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.35354343585946</v>
+        <v>27.09102277495309</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.37691306340586</v>
+        <v>27.09102278223287</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.8072621836113</v>
+        <v>27.0910227577255</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.54386844677163</v>
+        <v>27.09102277858093</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.06223637247003</v>
+        <v>27.09102278495212</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.38043528910948</v>
+        <v>27.09102277586511</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.20901853036261</v>
+        <v>27.09102279882037</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>33.26773367480843</v>
+        <v>27.09102280610809</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.94229604363781</v>
+        <v>27.09102277208475</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.87788985786908</v>
+        <v>27.09102280488606</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>34.42403528010998</v>
+        <v>27.09102281490664</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.458812153474375</v>
+        <v>27.09102278418953</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.74726512863811</v>
+        <v>27.09102280724181</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.76390760021604</v>
+        <v>27.09102281430426</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.426976813483751</v>
+        <v>27.09102279208177</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.00825250649277</v>
+        <v>27.09102281756702</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.44882705063668</v>
+        <v>27.09102282537485</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.92936122491475</v>
+        <v>27.09102279994822</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.80355955065657</v>
+        <v>27.09102282225265</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.05112988907819</v>
+        <v>27.09102275993858</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.41044516649128</v>
+        <v>27.09102278187724</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.08601527704425</v>
+        <v>27.09102278841602</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.01819620334174</v>
+        <v>27.09102276808933</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.57229121427411</v>
+        <v>27.09102279234343</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.63572220038818</v>
+        <v>27.09102279957232</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>14.87867850076162</v>
+        <v>27.09102277497093</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.8545132125578</v>
+        <v>27.09102279619788</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.40791388274557</v>
+        <v>27.09102280252453</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.63913019216139</v>
+        <v>27.09102279329845</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.70676105865076</v>
+        <v>27.09102281659615</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.81569300864603</v>
+        <v>27.09102282383585</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.0109169199051</v>
+        <v>27.09102278891523</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.32365349802902</v>
+        <v>27.09102282230086</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>38.92503332076117</v>
+        <v>27.09102283225139</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>13.32579070032234</v>
+        <v>27.09102280117277</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.88033009494989</v>
+        <v>27.09102282463228</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.93813941394977</v>
+        <v>27.09102283164725</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.86508073114598</v>
+        <v>27.09102281061091</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.74042755907026</v>
+        <v>27.09102283654637</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.22648538471124</v>
+        <v>27.09102284430172</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.51082517322932</v>
+        <v>27.09102281878206</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.64218693653038</v>
+        <v>27.09102284148051</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.64250771752538</v>
+        <v>27.09102276295496</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.96502109134477</v>
+        <v>27.09102278479318</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.61340267059375</v>
+        <v>27.09102279127803</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.75891941017989</v>
+        <v>27.09102277134935</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.27233340631539</v>
+        <v>27.09102279549241</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.30570412832681</v>
+        <v>27.09102280266168</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.61760187199638</v>
+        <v>27.09102277821183</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.55788372566291</v>
+        <v>27.09102279934159</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.08499609974708</v>
+        <v>27.09102280561606</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.35483309706196</v>
+        <v>27.09102279640913</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.38726129989168</v>
+        <v>27.09102281958562</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.46793204701194</v>
+        <v>27.09102282676682</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.71371381156579</v>
+        <v>27.09102279194494</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.97032216652994</v>
+        <v>27.09102282517772</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>40.53026741133836</v>
+        <v>27.09102283504619</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>15.01770258859432</v>
+        <v>27.09102280412439</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.53000871170592</v>
+        <v>27.09102282747522</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.55871694628743</v>
+        <v>27.09102283443334</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.71835272463055</v>
+        <v>27.09102281381542</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.54701300072634</v>
+        <v>27.09102283963073</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.00089631269852</v>
+        <v>27.09102284732322</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.36065448841191</v>
+        <v>27.09102282196077</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.45121095240624</v>
+        <v>27.09102284455407</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.54429367570562</v>
+        <v>27.09102274780522</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.95564092864584</v>
+        <v>27.09102276961472</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.63032212787168</v>
+        <v>27.09102277624131</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.36842353655035</v>
+        <v>27.091022755026</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.97998421129053</v>
+        <v>27.0910227791373</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.04245696320735</v>
+        <v>27.09102278646327</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>18.37301140951507</v>
+        <v>27.0910227617272</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.39905122555464</v>
+        <v>27.09102278282917</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.95160619988043</v>
+        <v>27.09102278924079</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.13951176719065</v>
+        <v>27.09102278001195</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.26519248231224</v>
+        <v>27.09102280321644</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>41.3658494817235</v>
+        <v>27.09102281055229</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>19.33419328686239</v>
+        <v>27.09102277603225</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.72627042458689</v>
+        <v>27.09102280922133</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>42.32633482581398</v>
+        <v>27.09102281930549</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>16.82444569097353</v>
+        <v>27.09102278824701</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.44337093315977</v>
+        <v>27.09102281157034</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.50396257177688</v>
+        <v>27.09102281867879</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.20454855588744</v>
+        <v>27.09102279668815</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.15101051370196</v>
+        <v>27.09102282247307</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.6401730044621</v>
+        <v>27.09102283033176</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.00420140918167</v>
+        <v>27.09102280466734</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.19770647010174</v>
+        <v>27.09102282723403</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.68661627350367</v>
+        <v>27.09102282908599</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.54556870118656</v>
+        <v>27.09102281838609</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.64154565634599</v>
+        <v>27.09102284296358</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>39.17006340417559</v>
+        <v>27.09102285078742</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>15.78976962923429</v>
+        <v>27.09102281285973</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.51788863953742</v>
+        <v>27.09102284794003</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>40.63963278579618</v>
+        <v>27.09102285868747</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.36508907998847</v>
+        <v>27.09102283731468</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.80557933006684</v>
+        <v>27.09102285974798</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.87913898969876</v>
+        <v>27.09102286652294</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>15.07726691980918</v>
+        <v>27.09102284629873</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.82684185944007</v>
+        <v>27.09102287109968</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.33040141815493</v>
+        <v>27.09102287858968</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>21.97691539684343</v>
+        <v>27.09102285481435</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.99854453035369</v>
+        <v>27.09102287651989</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>37.93660804851632</v>
+        <v>27.09102288307507</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.14736241409963</v>
+        <v>27.09102287181723</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.44001140587764</v>
+        <v>27.09102289570779</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>48.07762450315001</v>
+        <v>27.09102290312511</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.43089674498672</v>
+        <v>27.09102286463806</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>43.39045349089111</v>
+        <v>27.09102289877643</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.59912596169178</v>
+        <v>27.09102290908637</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.56501645704283</v>
+        <v>27.09102284826792</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.32605932985294</v>
+        <v>27.09102283739797</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.67888596519607</v>
+        <v>27.0910228623383</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.26364295813039</v>
+        <v>27.09102287011162</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>20.36660150746158</v>
+        <v>27.09102283122191</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.50013083184454</v>
+        <v>27.09102286692192</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>45.68458931366747</v>
+        <v>27.09102287759712</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.63538623002625</v>
+        <v>27.0910228544232</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.33728683888245</v>
+        <v>27.09102287724699</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.44921109473518</v>
+        <v>27.09102288397065</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>19.93619293165163</v>
+        <v>27.09102286489734</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.97467610869646</v>
+        <v>27.09102289012998</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.52062597231077</v>
+        <v>27.09102289756327</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.98807647585414</v>
+        <v>27.09102287371488</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.26235277289405</v>
+        <v>27.09102289579824</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>43.23748501730508</v>
+        <v>27.09102290230377</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.35657799636427</v>
+        <v>27.09102289086927</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.90122464571816</v>
+        <v>27.09102291510629</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>53.59140114271653</v>
+        <v>27.09102292246926</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.42938900946414</v>
+        <v>27.09102288304388</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.78724020774888</v>
+        <v>27.09102291777648</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.0543610361289</v>
+        <v>27.09102292800835</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>36.34590408138362</v>
+        <v>27.09102285128646</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.14852904967564</v>
+        <v>27.0910228404409</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.45988030762345</v>
+        <v>27.09102286524999</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.01382825123974</v>
+        <v>27.09102287296135</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>22.17557443566351</v>
+        <v>27.09102283418972</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.24470037064569</v>
+        <v>27.09102286972436</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>47.38480765741534</v>
+        <v>27.09102288031302</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.27342839338896</v>
+        <v>27.09102285703015</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.93091274102912</v>
+        <v>27.09102287974838</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>39.01266163386308</v>
+        <v>27.09102288641584</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>21.72975999037805</v>
+        <v>27.09102286773662</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.71914329243971</v>
+        <v>27.09102289285256</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.23173106068698</v>
+        <v>27.09102290022372</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.77528915817641</v>
+        <v>27.09102287652413</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.0066472261157</v>
+        <v>27.09102289850535</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>44.9526052291536</v>
+        <v>27.09102290495651</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.11220394316953</v>
+        <v>27.09102289354967</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>50.6127410621551</v>
+        <v>27.09102291765903</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>55.27019770996851</v>
+        <v>27.09102292496157</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.17286287336587</v>
+        <v>27.09102288566058</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.46298861752239</v>
+        <v>27.09102292023254</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>56.68412060824171</v>
+        <v>27.09102293037889</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.12324067026143</v>
+        <v>27.09102283411189</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.84589276287247</v>
+        <v>27.09102282324695</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>43.27176284187777</v>
+        <v>27.09102284808942</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.85181988381442</v>
+        <v>27.09102285596596</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>23.70686745294728</v>
+        <v>27.09102281749662</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.93854542709312</v>
+        <v>27.0910228529894</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>49.12729595684981</v>
+        <v>27.09102286380685</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>23.4788331000855</v>
+        <v>27.091022841846</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.25055499094943</v>
+        <v>27.09102286454334</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>40.36869375084108</v>
+        <v>27.09102287136021</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>22.60325790398257</v>
+        <v>27.09102285137043</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.71886536359381</v>
+        <v>27.09102287646327</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.27171215563814</v>
+        <v>27.09102288399961</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.80135332909469</v>
+        <v>27.09102286000417</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.14303344039418</v>
+        <v>27.09102288196518</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>46.12418418139255</v>
+        <v>27.0910228885609</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.21003957445684</v>
+        <v>27.09102287713218</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.83389886801981</v>
+        <v>27.09102290128013</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.52325211639557</v>
+        <v>27.09102290874519</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.12747412424866</v>
+        <v>27.09102286971525</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>51.59174546461923</v>
+        <v>27.09102290425541</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>57.86839283556327</v>
+        <v>27.09102291462913</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>6.936418580392957</v>
+        <v>27.09102273487748</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.71732572189725</v>
+        <v>27.09102275768524</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.47812462504899</v>
+        <v>27.09102276457563</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>5.076632323982555</v>
+        <v>27.09102274124394</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.09669575484318</v>
+        <v>27.09102276645886</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.25446254540498</v>
+        <v>27.09102277407647</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>11.15881658709501</v>
+        <v>27.09102274822543</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.54202257598704</v>
+        <v>27.09102277029328</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.17787237751631</v>
+        <v>27.09102277696014</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.02865442316059</v>
+        <v>27.09102276725983</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.49363364863564</v>
+        <v>27.09102279151083</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.69413291384366</v>
+        <v>27.09102279913116</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>12.09134224479947</v>
+        <v>27.09102276330789</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.04671231907671</v>
+        <v>27.09102279801609</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.77817590521482</v>
+        <v>27.09102280850169</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>9.891346171202956</v>
+        <v>27.09102277651262</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>22.91329786369219</v>
+        <v>27.09102280089771</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.06310643582446</v>
+        <v>27.09102280829073</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>7.525992283950526</v>
+        <v>27.09102278413412</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.91795436327394</v>
+        <v>27.09102281109286</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.50583422598955</v>
+        <v>27.09102281926615</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>14.4281610339386</v>
+        <v>27.09102279245653</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.01119086556451</v>
+        <v>27.09102281605054</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.45548410660698</v>
+        <v>27.09102275109329</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.49770389699509</v>
+        <v>27.09102277430564</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.29470174334152</v>
+        <v>27.09102278114831</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>9.152528047689117</v>
+        <v>27.09102275896608</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.46138330318838</v>
+        <v>27.0910227846283</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.65914207752224</v>
+        <v>27.09102279219315</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>15.36515386956311</v>
+        <v>27.09102276623505</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.00090646135144</v>
+        <v>27.09102278869437</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.671727595545</v>
+        <v>27.09102279531505</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.4314241009504</v>
+        <v>27.09102278546415</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.14842317526852</v>
+        <v>27.09102281007618</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.39949354105291</v>
+        <v>27.09102281764736</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>16.29522666951127</v>
+        <v>27.09102278088031</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.6487335963492</v>
+        <v>27.09102281620421</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>40.43533753885774</v>
+        <v>27.09102282661719</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.8878842257769</v>
+        <v>27.09102279426634</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.19069245986817</v>
+        <v>27.09102281908039</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.38174545483299</v>
+        <v>27.09102282642417</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>12.1169428888039</v>
+        <v>27.09102280350592</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.81929953101922</v>
+        <v>27.09102283093889</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.45274907888628</v>
+        <v>27.09102283905774</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>19.16760508337458</v>
+        <v>27.09102281214228</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.02207372525077</v>
+        <v>27.09102283615134</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>12.11194447130243</v>
+        <v>27.09102275427665</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.1148624175584</v>
+        <v>27.09102277738204</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.88353932179507</v>
+        <v>27.09102278416868</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.96604261450176</v>
+        <v>27.09102276240999</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.23145349412484</v>
+        <v>27.09102278795396</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.39789967168399</v>
+        <v>27.09102279545687</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>17.1760603995027</v>
+        <v>27.09102276965681</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.77384452437978</v>
+        <v>27.09102279201263</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.41728251750021</v>
+        <v>27.0910227985791</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.21772217938742</v>
+        <v>27.09102278874954</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.8970473440431</v>
+        <v>27.09102281323297</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.11873165730567</v>
+        <v>27.09102282074367</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>18.06904348731444</v>
+        <v>27.09102278408158</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.36261087967299</v>
+        <v>27.09102281924271</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.10605350085704</v>
+        <v>27.09102282957042</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.64960384221606</v>
+        <v>27.09102279738279</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.90737949136953</v>
+        <v>27.09102282208121</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.06814533980738</v>
+        <v>27.09102282936584</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.04849973547541</v>
+        <v>27.09102280689253</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.70107548107746</v>
+        <v>27.09102283419766</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.3010388963926</v>
+        <v>27.09102284225112</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.09474852026882</v>
+        <v>27.09102281549964</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.90570678318275</v>
+        <v>27.09102283939682</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>14.23560134664033</v>
+        <v>27.09102273835809</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.33437344922352</v>
+        <v>27.09102276143449</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.13098779705927</v>
+        <v>27.09102276836907</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>12.77956224965442</v>
+        <v>27.09102274525429</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.15087808194818</v>
+        <v>27.09102277076621</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.34823900731092</v>
+        <v>27.09102277843267</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>19.14697610363171</v>
+        <v>27.09102275233773</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.83729864282526</v>
+        <v>27.09102277466551</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.50776411592233</v>
+        <v>27.09102278137511</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.21301891506386</v>
+        <v>27.09102277152438</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.99223404230982</v>
+        <v>27.09102279603785</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.23584995445846</v>
+        <v>27.09102280370939</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>19.88381873570512</v>
+        <v>27.09102276736456</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>38.32356076653267</v>
+        <v>27.09102280248158</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>44.10961978098693</v>
+        <v>27.09102281303441</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>17.67905394820233</v>
+        <v>27.09102278069047</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.05145566540817</v>
+        <v>27.09102280536132</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.24585800207943</v>
+        <v>27.09102281280294</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>15.73790133731058</v>
+        <v>27.09102278888258</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.5171274570394</v>
+        <v>27.09102281615723</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.15431030980865</v>
+        <v>27.09102282438425</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.95391864578016</v>
+        <v>27.09102279732124</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.87555963733897</v>
+        <v>27.09102282119175</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.02300971514208</v>
+        <v>27.09102282320372</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.41049309729486</v>
+        <v>27.09102281183453</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.20945666803242</v>
+        <v>27.09102283779003</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>40.89152982612416</v>
+        <v>27.09102284597377</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.14649753107122</v>
+        <v>27.09102280606334</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.99245866887881</v>
+        <v>27.09102284317189</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.31733018814686</v>
+        <v>27.09102285442238</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>17.10939101706848</v>
+        <v>27.09102283327305</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.29192519932042</v>
+        <v>27.09102285700924</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.51040009688448</v>
+        <v>27.09102286409999</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>15.51586953698326</v>
+        <v>27.09102284213007</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.08559230502993</v>
+        <v>27.09102286837142</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.74944555721271</v>
+        <v>27.09102287621053</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.85256508678689</v>
+        <v>27.09102285114944</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.59131080670749</v>
+        <v>27.0910228741156</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.66949513327931</v>
+        <v>27.09102288097631</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>32.43894821981495</v>
+        <v>27.09102286903232</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.44353436632751</v>
+        <v>27.09102289426742</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.25021158046242</v>
+        <v>27.09102290202594</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.22810832782953</v>
+        <v>27.09102286150529</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.31853934212964</v>
+        <v>27.09102289762636</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.74823341228543</v>
+        <v>27.09102290841686</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.07374010437735</v>
+        <v>27.09102284325687</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.35912666312313</v>
+        <v>27.09102283170562</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.42878627752985</v>
+        <v>27.09102285804347</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.16763797788416</v>
+        <v>27.09102286617547</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.88209035737483</v>
+        <v>27.09102282525338</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>41.15596448601721</v>
+        <v>27.09102286301471</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>47.5436710921351</v>
+        <v>27.09102287419026</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.53586347669715</v>
+        <v>27.09102285117762</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.99445836118723</v>
+        <v>27.09102287532537</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>39.25119608829029</v>
+        <v>27.09102288236248</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>20.55589266060367</v>
+        <v>27.0910228615955</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.43071502282515</v>
+        <v>27.09102288829184</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.13684689481197</v>
+        <v>27.09102289607166</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.05069865969722</v>
+        <v>27.09102287092635</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.05625137265591</v>
+        <v>27.09102289429072</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.17140601458418</v>
+        <v>27.09102290109955</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>37.84559884695253</v>
+        <v>27.09102288896714</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.11591610968024</v>
+        <v>27.09102291456771</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.97547660449786</v>
+        <v>27.09102292226996</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.41430482223348</v>
+        <v>27.09102288076226</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.92535127749717</v>
+        <v>27.09102291750962</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>57.41334100507119</v>
+        <v>27.0910229282185</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>37.92809012363704</v>
+        <v>27.09102284644512</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.25728359095304</v>
+        <v>27.09102283492054</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>43.28264896347445</v>
+        <v>27.09102286111927</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.98952376742955</v>
+        <v>27.09102286918712</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.76712410792129</v>
+        <v>27.09102282839017</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.97232737489643</v>
+        <v>27.09102286597554</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>49.31387424816916</v>
+        <v>27.09102287706108</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>23.24150084451072</v>
+        <v>27.091022853928</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.65276188727885</v>
+        <v>27.09102287796349</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.87799048117478</v>
+        <v>27.09102288494205</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.4254645926077</v>
+        <v>27.09102286459404</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.24796195986705</v>
+        <v>27.09102289116626</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>41.9192568576002</v>
+        <v>27.09102289888135</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.91271177053336</v>
+        <v>27.09102287389118</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>42.87252671864253</v>
+        <v>27.09102289714693</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>46.95721768278622</v>
+        <v>27.0910229038991</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>39.67420035615937</v>
+        <v>27.09102289179675</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>52.89747052671587</v>
+        <v>27.09102291726212</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>57.72295195220178</v>
+        <v>27.09102292490166</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.2311983257164</v>
+        <v>27.0910228835258</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>52.67007169203913</v>
+        <v>27.09102292010232</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>59.11003909561049</v>
+        <v>27.09102293072209</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.93048029530668</v>
+        <v>27.09102282839195</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.16669695742776</v>
+        <v>27.09102281684822</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>45.31433342450228</v>
+        <v>27.09102284308275</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>50.04934413987311</v>
+        <v>27.09102285132248</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.4940391772563</v>
+        <v>27.0910228108433</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.8740029231224</v>
+        <v>27.09102284838671</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>51.26686660911418</v>
+        <v>27.09102285971115</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.62900456529128</v>
+        <v>27.09102283796032</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>38.16264923198345</v>
+        <v>27.09102286197504</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.42634653231661</v>
+        <v>27.09102286910992</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>23.4605436923351</v>
+        <v>27.09102284738011</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.41826774586606</v>
+        <v>27.09102287392938</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.13212207182924</v>
+        <v>27.09102288181728</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.11270276608276</v>
+        <v>27.09102285652165</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.19070881363102</v>
+        <v>27.09102287975731</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>48.31260346583336</v>
+        <v>27.09102288666072</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>40.944140697542</v>
+        <v>27.09102287453631</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.29862946698975</v>
+        <v>27.09102290004268</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>59.15846689324604</v>
+        <v>27.09102290785175</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>33.34334413445573</v>
+        <v>27.09102286676083</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.96878288380931</v>
+        <v>27.09102290330576</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>60.4674361698745</v>
+        <v>27.09102291416341</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.13</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.284</v>
+        <v>18.762</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.113</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.174</v>
+        <v>16.291</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.035</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.869</v>
+        <v>16.376</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.09102274705758</v>
+        <v>-2.993168814800715</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.09102276915854</v>
+        <v>19.90319160873529</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.09102277591003</v>
+        <v>26.46089486126192</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.09102275424731</v>
+        <v>0.7624540399923063</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.09102277868084</v>
+        <v>15.69024425113725</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.09102278614489</v>
+        <v>21.53404648175283</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.09102276104043</v>
+        <v>9.829421118886767</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.09102278242441</v>
+        <v>21.91444136354964</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.09102278895687</v>
+        <v>26.49535593762569</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.09102277954168</v>
+        <v>24.34236260611793</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.09102280308102</v>
+        <v>30.82773656192725</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.09102281055826</v>
+        <v>35.46449520634512</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.09102277550308</v>
+        <v>5.295829370501835</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.09102280913571</v>
+        <v>23.7685158726505</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.09102281940993</v>
+        <v>30.52307675131026</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.09102278796946</v>
+        <v>-0.7536580247595666</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.09102281160506</v>
+        <v>25.86494704919146</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.09102281884659</v>
+        <v>34.61117933090151</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.09102279637395</v>
+        <v>-1.033220252418129</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.09102282250409</v>
+        <v>17.90408678886837</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.0910228305099</v>
+        <v>25.78665608015786</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.09102280446197</v>
+        <v>11.19934135482059</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.09102282733081</v>
+        <v>26.42338134225255</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.09102276299589</v>
+        <v>4.414295452953393</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.09102278549109</v>
+        <v>29.11054066948684</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.09102279219306</v>
+        <v>35.48917081029302</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.0910227716612</v>
+        <v>10.49148838021875</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.09102279653059</v>
+        <v>27.10771134171888</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.09102280393989</v>
+        <v>32.67831496780947</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.09102277874195</v>
+        <v>20.26522397354534</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.09102280050739</v>
+        <v>33.81609562240394</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.09102280699193</v>
+        <v>38.16159903123742</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.09102279743493</v>
+        <v>37.66806139538667</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.09102282132601</v>
+        <v>44.64430715313998</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.09102282875137</v>
+        <v>49.21829399978945</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.09102279277749</v>
+        <v>17.17183564488656</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.09102282701006</v>
+        <v>37.61712117080543</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27.09102283720893</v>
+        <v>44.07736476016282</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>27.09102280539298</v>
+        <v>9.460285281478075</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.09102282944675</v>
+        <v>38.08479479253197</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.09102283663716</v>
+        <v>46.74213896926287</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>27.09102281538144</v>
+        <v>11.83463711212048</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.09102284197388</v>
+        <v>32.66787125960399</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.09102284992317</v>
+        <v>40.36843299733397</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.09102284705614</v>
+        <v>41.83284786910116</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>27.09102276606189</v>
+        <v>4.422408344314999</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.09102278845436</v>
+        <v>29.41546935126442</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.09102279510056</v>
+        <v>35.8358763302211</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.09102277497521</v>
+        <v>11.26645387557767</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.09102279973101</v>
+        <v>28.23815292270617</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.09102280707866</v>
+        <v>33.84480720607655</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.09102278203656</v>
+        <v>20.99426329480683</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.09102280370259</v>
+        <v>34.85964047059638</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.09102281013318</v>
+        <v>39.23998127591035</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.09102280059681</v>
+        <v>38.97965669003852</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>27.09102282436386</v>
+        <v>46.03024354039132</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>27.09102283172862</v>
+        <v>50.66304087943502</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.0910227958573</v>
+        <v>18.25587661404107</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.09102282993353</v>
+        <v>39.10529351705894</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.09102284004753</v>
+        <v>45.60922717101246</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>27.09102280839005</v>
+        <v>10.05463489084149</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.09102283233264</v>
+        <v>39.00417895029512</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.09102283946425</v>
+        <v>47.71560735350876</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.09102281863585</v>
+        <v>13.29121370788239</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.09102284510538</v>
+        <v>34.50835766106576</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.09102285298967</v>
+        <v>42.25795610782401</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>27.09102282701087</v>
+        <v>26.39329059545491</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.09102285017674</v>
+        <v>43.59560122513888</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.0910227505829</v>
+        <v>0.7256545920382678</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.09102277294545</v>
+        <v>24.7673399970417</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.09102277973913</v>
+        <v>31.61181981836026</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.09102275829872</v>
+        <v>6.714327267889828</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.09102278302144</v>
+        <v>22.77064358380098</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.09102279053213</v>
+        <v>28.8817936504058</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.09102276519435</v>
+        <v>15.83759660106835</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.09102278683143</v>
+        <v>28.89983192578813</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.09102279340471</v>
+        <v>33.71320022233756</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.09102278384383</v>
+        <v>31.86947336147537</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.09102280763911</v>
+        <v>38.65932971012786</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.09102281516492</v>
+        <v>43.56843258279399</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>27.0910227795993</v>
+        <v>11.94333224064506</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.09102281362999</v>
+        <v>31.7286459382471</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.09102282396842</v>
+        <v>38.79435402026852</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>27.09102279217528</v>
+        <v>4.65904848586656</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.0910228160891</v>
+        <v>32.57005809036151</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.09102282337715</v>
+        <v>41.66563318533062</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27.09102280114537</v>
+        <v>6.756409331714792</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.0910228275831</v>
+        <v>26.97612015443366</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.09102283564033</v>
+        <v>35.1889054895982</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>27.09102280934974</v>
+        <v>19.13516733420898</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.09102283248778</v>
+        <v>35.46797352360589</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.09102283433742</v>
+        <v>32.69879208955045</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.09102282325951</v>
+        <v>30.10136195014697</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.0910228484637</v>
+        <v>38.97986597293789</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.091022856492</v>
+        <v>45.04228536109016</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.09102281742206</v>
+        <v>8.520697754038292</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.09102285339005</v>
+        <v>31.69961943943828</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.09102286441001</v>
+        <v>40.66142700136824</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.09102284169742</v>
+        <v>1.657432813024617</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.09102286469341</v>
+        <v>29.68433892483552</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.09102287164605</v>
+        <v>39.19149825211305</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.09102285117753</v>
+        <v>2.213131701742579</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.09102287660056</v>
+        <v>22.77767333249423</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.09102288428699</v>
+        <v>31.39651053255269</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.09102285991789</v>
+        <v>16.42081530942698</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.09102288216786</v>
+        <v>33.08806217255309</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.09102288889495</v>
+        <v>39.9889241265155</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>27.09102287724459</v>
+        <v>39.92119607852878</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.09102290174258</v>
+        <v>49.49226888092772</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.09102290935888</v>
+        <v>56.22496962342956</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.09102286973485</v>
+        <v>16.57636422974646</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.0910229047295</v>
+        <v>41.6471890734655</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.09102291530983</v>
+        <v>51.48736744719739</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>27.09102285401328</v>
+        <v>47.95376401485522</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>27.09102284276179</v>
+        <v>46.97636777671525</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>27.09102286833875</v>
+        <v>56.36992443252971</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>27.09102287631244</v>
+        <v>62.40379438120407</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.0910228362577</v>
+        <v>23.84711568606303</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.09102287286205</v>
+        <v>49.24134175543107</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>27.09102288380421</v>
+        <v>58.0060740817467</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.09102285923632</v>
+        <v>14.6969481490705</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.09102288263341</v>
+        <v>44.75555380796815</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>27.09102288953126</v>
+        <v>54.11459146488678</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.09102287024275</v>
+        <v>18.12995962009815</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.09102289610922</v>
+        <v>40.61273990962928</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>27.09102290373508</v>
+        <v>48.98916697947983</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.09102287929321</v>
+        <v>33.32654569113973</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>27.09102290193128</v>
+        <v>51.6555997097656</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>27.09102290860535</v>
+        <v>58.34994184058532</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>27.09102289677406</v>
+        <v>59.97988982022963</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>27.09102292162807</v>
+        <v>70.04445686399812</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>27.09102292918615</v>
+        <v>76.73493072785661</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.09102288860143</v>
+        <v>35.03164393677667</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.09102292420648</v>
+        <v>62.34320596887908</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>27.09102293470343</v>
+        <v>71.92116087308906</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>27.09102285707699</v>
+        <v>49.76327458407585</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>27.09102284585162</v>
+        <v>48.96206423127556</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.09102287129423</v>
+        <v>58.41867705400001</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>27.09102287920375</v>
+        <v>64.52099685631077</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.09102283927158</v>
+        <v>25.62266892167003</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.09102287570674</v>
+        <v>51.4538915442697</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>27.09102286188356</v>
+        <v>16.37904069811731</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>27.09102288517264</v>
+        <v>46.76672510596619</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.09102289201241</v>
+        <v>56.15322912412748</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.09102287312636</v>
+        <v>20.73052488504657</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.09102289887341</v>
+        <v>43.59958028778006</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.09102290643505</v>
+        <v>51.99818879570795</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.09102288214627</v>
+        <v>35.91098643366901</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.09102290467983</v>
+        <v>54.58338481858756</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.09102291129771</v>
+        <v>61.30173774012563</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>27.09102289949578</v>
+        <v>63.11450850973205</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.09102292421906</v>
+        <v>73.23574115020239</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.09102293171459</v>
+        <v>79.98055201823911</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27.0910228912588</v>
+        <v>37.93535969352122</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27.09102292669947</v>
+        <v>65.68605359208883</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.09102293710803</v>
+        <v>75.2920950454365</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.09102283953939</v>
+        <v>42.02959791981135</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.09102282829195</v>
+        <v>39.56646573273876</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.09102285376822</v>
+        <v>48.77156244487411</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.09102286184978</v>
+        <v>55.15661624175746</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.09102282222332</v>
+        <v>17.09790081975435</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.09102285861471</v>
+        <v>41.7680024208203</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.09102286970545</v>
+        <v>51.1088513758601</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.0910228463802</v>
+        <v>9.91253062783662</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.09102286964712</v>
+        <v>39.27550233975566</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.09102287664222</v>
+        <v>49.08373911012973</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.09102285641646</v>
+        <v>12.96740456248725</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.091022882139</v>
+        <v>34.86032184698654</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.09102288987238</v>
+        <v>43.75888459759218</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.09102286527849</v>
+        <v>27.42072638722076</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.0910228877906</v>
+        <v>45.23753396904497</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.09102289455878</v>
+        <v>52.38268223348303</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.09102288273271</v>
+        <v>52.50069172716081</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>27.0910229074949</v>
+        <v>62.40544592455344</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>27.09102291515953</v>
+        <v>69.43829037218494</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>27.0910228749779</v>
+        <v>28.16749019909791</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>27.09102291038483</v>
+        <v>54.78054077446569</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.09102292102978</v>
+        <v>64.94533025341997</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>27.09102274493582</v>
+        <v>10.42177895280797</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.09102276723834</v>
+        <v>34.85217624510371</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.09102277386773</v>
+        <v>40.82394217637868</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.09102275152259</v>
+        <v>14.20588790138974</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.09102277617896</v>
+        <v>30.81028666235382</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>27.09102278350802</v>
+        <v>36.08360665534396</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.09102275846494</v>
+        <v>24.76581025504959</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.09102278004395</v>
+        <v>38.33319048768868</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.09102278645827</v>
+        <v>42.41158061825717</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.09102277676001</v>
+        <v>40.28177583954356</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.09102280045647</v>
+        <v>47.32390094552851</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.09102280777311</v>
+        <v>51.46689704871585</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.09102277250052</v>
+        <v>19.41143995449339</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.09102280643987</v>
+        <v>39.7673944943642</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.09102281652828</v>
+        <v>45.84400363385633</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.09102278588761</v>
+        <v>10.85426317114342</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.0910228097366</v>
+        <v>39.03303543779985</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.09102281684202</v>
+        <v>47.07195971572277</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.09102279370467</v>
+        <v>10.38924345449574</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.09102282007072</v>
+        <v>31.01383641800221</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.09102282792605</v>
+        <v>38.21376483955834</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.09102280196494</v>
+        <v>24.19207653344762</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.09102282504024</v>
+        <v>40.91618323437395</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.09102276063509</v>
+        <v>17.0755754278575</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.09102278332763</v>
+        <v>43.31964545249051</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.09102278991181</v>
+        <v>49.08437257937244</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.09102276867469</v>
+        <v>23.06119194152462</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.09102279376223</v>
+        <v>41.36688334784398</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>27.09102280104132</v>
+        <v>46.34420996339804</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.09102277589321</v>
+        <v>34.34039035209369</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.09102279784957</v>
+        <v>49.38660828481548</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>27.09102280422016</v>
+        <v>53.2090141341278</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.09102279437366</v>
+        <v>52.71831923358737</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.09102281841702</v>
+        <v>60.26067417487366</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.0910228256881</v>
+        <v>64.3293818373164</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.0910227895005</v>
+        <v>30.39246244690816</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27.09102282403336</v>
+        <v>52.73593935028028</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.09102283405299</v>
+        <v>58.49121576938946</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.0910228030668</v>
+        <v>20.22387835381181</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>27.09102282732913</v>
+        <v>50.41656204314677</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.09102283438776</v>
+        <v>58.33401645551366</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.09102281244416</v>
+        <v>22.28392493785182</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.09102283926717</v>
+        <v>44.81213019061762</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.09102284707078</v>
+        <v>51.80407812362803</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.09102282100575</v>
+        <v>37.00518907925411</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.09102284448098</v>
+        <v>55.37532405861128</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>27.09102276364925</v>
+        <v>16.70752584768917</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.09102278623652</v>
+        <v>43.23321177342733</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>27.09102279276661</v>
+        <v>49.03377827241812</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.09102277193677</v>
+        <v>23.43074063676294</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.09102279690794</v>
+        <v>42.07483011289445</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.09102280412722</v>
+        <v>47.0836503990607</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.09102277913162</v>
+        <v>34.64707926066693</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.09102280098613</v>
+        <v>49.99357874351578</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27.09102280730438</v>
+        <v>53.84631711034231</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.09102279748049</v>
+        <v>53.59810719706293</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.09102282139743</v>
+        <v>61.21036534960556</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.09102282861042</v>
+        <v>65.33728940919045</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.09102279252876</v>
+        <v>31.05816723064479</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>27.09102282690144</v>
+        <v>53.78694187063568</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.09102283683875</v>
+        <v>59.58026943942876</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.09102280601088</v>
+        <v>20.4396173184524</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.09102283015947</v>
+        <v>50.94118634149989</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.09102283716095</v>
+        <v>58.90649310573944</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.09102281564538</v>
+        <v>23.33322071707865</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.09102284234265</v>
+        <v>46.22753185990169</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.09102285008307</v>
+        <v>53.26404391292421</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.0910228241762</v>
+        <v>38.00271024298295</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.09102284754139</v>
+        <v>56.69880382584849</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.09102274834119</v>
+        <v>13.49890508722519</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.09102277090544</v>
+        <v>39.07224657919186</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.09102277757694</v>
+        <v>45.29945394912909</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.09102275544268</v>
+        <v>19.45496711478587</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.09102278038839</v>
+        <v>37.18444457711175</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.09102278776401</v>
+        <v>42.6966574138592</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.09102276248372</v>
+        <v>30.05299180490897</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>27.09102278431596</v>
+        <v>44.59667552784488</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.09102279077104</v>
+        <v>48.88096032420007</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.09102278092456</v>
+        <v>47.0883181028185</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.09102280487646</v>
+        <v>54.43597633901229</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.0910228122421</v>
+        <v>58.83703150371746</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.09102277646016</v>
+        <v>25.33488688128334</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>27.0910228107978</v>
+        <v>47.00037445823931</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>27.0910228209503</v>
+        <v>53.35417740327298</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.09102278997135</v>
+        <v>15.5498080590569</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>27.09102281409885</v>
+        <v>45.01642481068643</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>27.0910228212504</v>
+        <v>53.37130474223663</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.09102279834289</v>
+        <v>17.39692635995372</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.09102282501684</v>
+        <v>39.29832357244412</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.09102283292318</v>
+        <v>46.79912668846936</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.09102280671572</v>
+        <v>31.3279090436095</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.09102283006049</v>
+        <v>49.15824558613134</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.09102283191515</v>
+        <v>46.59281109353617</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.09102282061434</v>
+        <v>44.33917502919525</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.09102284597688</v>
+        <v>53.74597613464167</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.09102285382592</v>
+        <v>59.21842547877536</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.09102281458308</v>
+        <v>21.13539165284966</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>27.09102285087579</v>
+        <v>46.21478313696776</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.09102286168862</v>
+        <v>54.3738215810592</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.09102284053787</v>
+        <v>13.08737397263916</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.09102286374687</v>
+        <v>42.71720621298689</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.09102287055722</v>
+        <v>51.49165772864328</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.09102284952889</v>
+        <v>13.16273572222019</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>27.09102287518741</v>
+        <v>35.46493288108704</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.09102288271653</v>
+        <v>43.38164609753331</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.09102285846145</v>
+        <v>28.94354704551495</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27.09102288091752</v>
+        <v>47.15603432389445</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>27.09102288750694</v>
+        <v>53.43740044631036</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.09102287568732</v>
+        <v>53.51554310631369</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.09102290033717</v>
+        <v>63.62853962313337</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.09102290777491</v>
+        <v>69.74805031505815</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.09102286798716</v>
+        <v>28.56394520148768</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.09102290330597</v>
+        <v>55.59397504312184</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.09102291366977</v>
+        <v>64.6030472463202</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.09102285131062</v>
+        <v>60.87355146027939</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.09102283983115</v>
+        <v>60.23544452264818</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.09102286556097</v>
+        <v>70.16636652998244</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.09102287336186</v>
+        <v>75.59599953550959</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.09102283313903</v>
+        <v>35.48775264672879</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.09102287006075</v>
+        <v>62.79145499009958</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.09102288080238</v>
+        <v>70.72221931354781</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.09102285786117</v>
+        <v>25.2859942449595</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.09102288146662</v>
+        <v>56.95664617632103</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.09102288822565</v>
+        <v>65.5470129294896</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.09102286835767</v>
+        <v>28.11604338716572</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.09102289445448</v>
+        <v>52.34524783394542</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.09102290192687</v>
+        <v>59.99017183165323</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.09102287758908</v>
+        <v>44.89606984254721</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.09102290042874</v>
+        <v>64.77986773614239</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>27.0910229069685</v>
+        <v>70.82789456885575</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>27.0910228949647</v>
+        <v>72.60051918649097</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.09102291996563</v>
+        <v>83.21594562006418</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.09102292735043</v>
+        <v>89.27805516758124</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.09102288660731</v>
+        <v>46.05333343237001</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.09102292252943</v>
+        <v>75.33449087312934</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.09102293281513</v>
+        <v>84.04605212820138</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.09102285431572</v>
+        <v>62.23911990624797</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.09102284286389</v>
+        <v>61.78764070002335</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.09102286845703</v>
+        <v>71.77809170398496</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.09102287619626</v>
+        <v>77.27496931716493</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.09102283609904</v>
+        <v>36.84277562559027</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.09102287284768</v>
+        <v>64.56379452472015</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>27.09102288350233</v>
+        <v>72.54685446486494</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.09102286045282</v>
+        <v>26.58610337568413</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.09102288394794</v>
+        <v>58.57170151870206</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.09102289065036</v>
+        <v>67.18159434437406</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.09102287118537</v>
+        <v>30.31227561493435</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>27.0910228971602</v>
+        <v>54.91199562236714</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>27.09102290457001</v>
+        <v>62.57268589168257</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>27.09102288038173</v>
+        <v>47.05756438992123</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.09102290311464</v>
+        <v>67.2716631978128</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>27.09102290959963</v>
+        <v>73.33743624864056</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>27.09102289762644</v>
+        <v>75.30656041754244</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.09102292249471</v>
+        <v>85.97589114734649</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27.09102292981916</v>
+        <v>92.09043608513301</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.09102288920783</v>
+        <v>48.54197527256484</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.09102292496203</v>
+        <v>78.24499647879864</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.0910229351616</v>
+        <v>86.97678824160261</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.09102283698004</v>
+        <v>55.09323209866956</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.09102282550776</v>
+        <v>53.011296403704</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.091022851142</v>
+        <v>62.74801088640224</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.09102285904437</v>
+        <v>68.52507472544829</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.09102281924651</v>
+        <v>28.91855792831059</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.09102285596306</v>
+        <v>55.48364534442272</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.09102286684609</v>
+        <v>63.98640272216916</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.09102284511201</v>
+        <v>20.61157630422675</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>27.09102286859249</v>
+        <v>51.57920698087335</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.09102287544457</v>
+        <v>60.61741396871128</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>27.09102285464986</v>
+        <v>23.13026082480516</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>27.09102288060851</v>
+        <v>46.76149712333012</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>27.09102288818377</v>
+        <v>54.92430667037846</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.09102286370072</v>
+        <v>39.13507814028289</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>27.09102288641946</v>
+        <v>58.50023078414954</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.09102289304925</v>
+        <v>64.99447775748345</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.09102288105275</v>
+        <v>65.29945067453022</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>27.09102290596679</v>
+        <v>75.75171187853567</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.09102291345249</v>
+        <v>82.15037925954894</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27.0910228731087</v>
+        <v>39.35937017297964</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>27.09102290884063</v>
+        <v>67.9336704272438</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.09102291926793</v>
+        <v>77.2271543996312</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>27.09102274145279</v>
+        <v>-7.680416590799577</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.09102276397887</v>
+        <v>14.98942115638009</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.09102277087779</v>
+        <v>21.52857910481812</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.09102274856338</v>
+        <v>-4.370950851449578</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.0910227734669</v>
+        <v>10.18507824375028</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>27.09102278109394</v>
+        <v>15.99744804882189</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.09102275546264</v>
+        <v>4.643979630296677</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.09102277725795</v>
+        <v>16.40426177361803</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.09102278393305</v>
+        <v>20.94316982177157</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.09102277444652</v>
+        <v>18.95505649197057</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.09102279844369</v>
+        <v>25.26215740907055</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.09102280608074</v>
+        <v>29.91335033558128</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.09102277049386</v>
+        <v>0.1438542049020768</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.09102280477342</v>
+        <v>18.23118789355583</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.091022815272</v>
+        <v>24.94501413446847</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.09102278311002</v>
+        <v>-8.216438568439592</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.09102280720263</v>
+        <v>18.1649955163492</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>27.09102281460242</v>
+        <v>26.974720817034</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.09102279145982</v>
+        <v>-9.139905654862517</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.0910228180952</v>
+        <v>9.426311509574159</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.09102282627597</v>
+        <v>17.36352816130431</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.09102279968036</v>
+        <v>2.9667114673722</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.09102282299138</v>
+        <v>17.86093966752878</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>27.09102275771875</v>
+        <v>-0.5194792949352305</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.09102278064687</v>
+        <v>23.96295484515225</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.09102278749736</v>
+        <v>30.32889671420927</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.09102276633883</v>
+        <v>5.139199540987562</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.09102279168682</v>
+        <v>21.39340128506181</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.09102279926032</v>
+        <v>26.93845127296741</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.09102277353166</v>
+        <v>14.86079561649315</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.09102279571596</v>
+        <v>28.09516692108868</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.09102280234422</v>
+        <v>32.40396737214152</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.09102279271261</v>
+        <v>32.09703555345004</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.09102281706845</v>
+        <v>38.90032880935509</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.09102282465481</v>
+        <v>43.49286851191161</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.0910227881287</v>
+        <v>11.83032536822971</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.09102282302007</v>
+        <v>31.90244479612228</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.09102283344495</v>
+        <v>38.32837039852291</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.0910228009015</v>
+        <v>1.800474749948719</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.09102282542056</v>
+        <v>30.20416984400446</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.09102283277042</v>
+        <v>38.93361061695504</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.09102281087155</v>
+        <v>3.560192839587597</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>27.09102283797839</v>
+        <v>24.03636388742049</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.09102284610396</v>
+        <v>31.80049124857119</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.09102281941194</v>
+        <v>16.57562033315931</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>27.09102284313558</v>
+        <v>33.11908127128394</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.09102276087476</v>
+        <v>-0.6100404761775486</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.09102278369805</v>
+        <v>24.17219426250682</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.09102279049202</v>
+        <v>30.58541155268789</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.09102276974944</v>
+        <v>5.824805675750543</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.09102279498153</v>
+        <v>22.43809629134923</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.09102280249255</v>
+        <v>28.024995183464</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.09102277692257</v>
+        <v>15.49705227485119</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.09102279900544</v>
+        <v>29.04911008280916</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.09102280557901</v>
+        <v>33.39784095631094</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.09102279596726</v>
+        <v>33.3242838089507</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.09102282019651</v>
+        <v>40.20323352918505</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.09102282772151</v>
+        <v>44.85849556073597</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.09102279129849</v>
+        <v>12.82722739975805</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>27.09102282603031</v>
+        <v>33.30755596001117</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.09102283636919</v>
+        <v>39.78371372143761</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.0910228039896</v>
+        <v>2.328563420924354</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.09102282839521</v>
+        <v>31.06100863735252</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.0910228356855</v>
+        <v>39.85061259542993</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.09102281422392</v>
+        <v>4.961878299565182</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.09102284120533</v>
+        <v>25.82636662131064</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.09102284926504</v>
+        <v>33.64599157498557</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.09102282273765</v>
+        <v>17.9407059129845</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.09102284635152</v>
+        <v>34.82884094714983</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.0910227450148</v>
+        <v>-4.198846681659344</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.09102276780737</v>
+        <v>19.62144918899184</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.09102277475006</v>
+        <v>26.45903002359004</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.09102275266041</v>
+        <v>1.363720727738983</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.09102277785854</v>
+        <v>17.05263602729208</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.09102278553397</v>
+        <v>23.14412581412171</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.0910227596638</v>
+        <v>10.42695647944983</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.09102278171695</v>
+        <v>23.16830308645675</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.09102278843442</v>
+        <v>27.94969189359166</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.0910227787996</v>
+        <v>26.27053921380777</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.09102280305752</v>
+        <v>32.88286662699059</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.09102281074492</v>
+        <v>37.81502129101962</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.09102277463822</v>
+        <v>6.576788135215267</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.09102280932331</v>
+        <v>25.9822064923764</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.0910228198885</v>
+        <v>33.02045837211057</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.09102278736859</v>
+        <v>-3.016186476201245</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.09102281174468</v>
+        <v>24.66414292173965</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.0910228191927</v>
+        <v>33.83784888961029</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.09102279629395</v>
+        <v>-1.540874453272831</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.09102282324273</v>
+        <v>18.31386527927879</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.09102283147682</v>
+        <v>26.59633832528583</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.09102280463278</v>
+        <v>10.70580774913944</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.09102282821809</v>
+        <v>26.71406124111911</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.09102283015111</v>
+        <v>24.16869629856355</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.09102281897108</v>
+        <v>21.71415443763202</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.09102284466604</v>
+        <v>30.41820773735414</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.0910228528655</v>
+        <v>36.53113012451121</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.09102281318811</v>
+        <v>0.3838456663823493</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.09102284985157</v>
+        <v>23.17534281225611</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.09102286111235</v>
+        <v>32.1917592291361</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.09102283851555</v>
+        <v>-4.812125917623604</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.09102286196042</v>
+        <v>23.0627340208541</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.09102286906016</v>
+        <v>32.60584478698257</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.09102284799525</v>
+        <v>-4.927242996959123</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.09102287391453</v>
+        <v>15.356989569243</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.09102288176359</v>
+        <v>24.00501268551369</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.09102285689072</v>
+        <v>9.230103145032775</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>27.09102287957501</v>
+        <v>25.64686822157038</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.09102288644442</v>
+        <v>32.55677089611669</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.091022874677</v>
+        <v>32.60969193615713</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.09102289965344</v>
+        <v>42.03953124489369</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.0910229074279</v>
+        <v>48.82909606723366</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.09102286716833</v>
+        <v>9.455763857801919</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.09102290284607</v>
+        <v>34.24021619802835</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.09102291365025</v>
+        <v>44.10597198838148</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.091022850247</v>
+        <v>39.28007646404506</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.0910228388893</v>
+        <v>38.4637325358411</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.09102286496433</v>
+        <v>47.68961569513614</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.09102287311049</v>
+        <v>53.77956516042963</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>27.091022832426</v>
+        <v>15.57653423502645</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>27.09102286973841</v>
+        <v>40.60037292935216</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.09102288092322</v>
+        <v>49.429282710483</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.09102285643403</v>
+        <v>8.12023147805191</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.0910228802878</v>
+        <v>38.04329398577678</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.09102288733371</v>
+        <v>47.44588417042671</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.09102286747525</v>
+        <v>10.9152760557819</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.09102289384658</v>
+        <v>33.13181199776389</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.09102290163612</v>
+        <v>41.54547410846118</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.09102287668756</v>
+        <v>26.06902563650214</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.09102289976748</v>
+        <v>44.15945778944543</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.09102290658481</v>
+        <v>50.86979425718066</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>27.09102289463258</v>
+        <v>52.64060233261588</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>27.09102291997188</v>
+        <v>62.56894813738452</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>27.09102292768917</v>
+        <v>69.32219338048034</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.09102288644731</v>
+        <v>27.87252372076747</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.09102292274729</v>
+        <v>54.91473934191994</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.09102293346956</v>
+        <v>64.52683762473171</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>27.0910228534053</v>
+        <v>41.04218553989011</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.09102284207295</v>
+        <v>40.40087880013069</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>27.0910228680109</v>
+        <v>49.69152006372003</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.0910228760921</v>
+        <v>55.85409261296915</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.09102283553095</v>
+        <v>17.30031496415577</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>27.09102287267071</v>
+        <v>42.76617038652182</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.09102288376486</v>
+        <v>51.66032167666503</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.09102285916235</v>
+        <v>9.759025239769045</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.09102288290591</v>
+        <v>40.01501044773973</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.09102288989296</v>
+        <v>49.45072178191613</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.09102287044638</v>
+        <v>13.48630441623752</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.09102289669587</v>
+        <v>36.09361753593035</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.09102290442034</v>
+        <v>44.53548630283149</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.09102287962762</v>
+        <v>28.6218686882227</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.09102290260091</v>
+        <v>47.05960319828171</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.09102290936129</v>
+        <v>53.79919858793862</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>27.09102289743783</v>
+        <v>55.75260229380717</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.09102292264378</v>
+        <v>65.73905960876164</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.09102293029772</v>
+        <v>72.55062842492617</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.09102288918578</v>
+        <v>30.74981506368299</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.09102292531806</v>
+        <v>58.23630422480649</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.09102293595075</v>
+        <v>67.88322609117199</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.09102283542448</v>
+        <v>33.32072294150218</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.09102282407182</v>
+        <v>30.99739768969327</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.09102285004399</v>
+        <v>40.02997538508735</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.09102285829864</v>
+        <v>46.47503115278907</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>27.0910228180543</v>
+        <v>8.775585345771525</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.09102285514915</v>
+        <v>33.0657014984749</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.09102286648333</v>
+        <v>42.47796041995805</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.0910228432678</v>
+        <v>3.307506331881779</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>27.09102286698878</v>
+        <v>32.52718310642753</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.09102287413251</v>
+        <v>42.38444245832467</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.09102285331394</v>
+        <v>5.718406468852447</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>27.09102287953847</v>
+        <v>27.33944692634547</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.09102288743615</v>
+        <v>36.28060345646613</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.09102286233328</v>
+        <v>20.11656578025567</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.09102288528473</v>
+        <v>37.69015543706934</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>27.0910228921967</v>
+        <v>44.85572014877877</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.09102288025043</v>
+        <v>45.09267060795129</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>27.09102290549611</v>
+        <v>54.85844071013053</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.09102291332061</v>
+        <v>61.95710901624834</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.09102287249283</v>
+        <v>20.94398523358337</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>27.09102290859075</v>
+        <v>47.28072033110524</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.09102291946187</v>
+        <v>57.48609533954835</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>27.09102274441291</v>
+        <v>-6.285236163909776</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.0910227659676</v>
+        <v>15.58231462734577</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.09102277255241</v>
+        <v>21.74398661778045</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.09102275112349</v>
+        <v>-3.230271035444069</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.09102277495309</v>
+        <v>10.89506432683146</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.09102278223287</v>
+        <v>16.37041177672111</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>27.0910227577255</v>
+        <v>5.562145412813372</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.09102277858093</v>
+        <v>16.98966551221284</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.09102278495212</v>
+        <v>21.2544249736191</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.09102277586511</v>
+        <v>19.38136386360361</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.09102279882037</v>
+        <v>25.48413251639174</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.09102280610809</v>
+        <v>29.8559795339921</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.09102277208475</v>
+        <v>1.155508917123736</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.09102280488606</v>
+        <v>18.68432598618919</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.09102281490664</v>
+        <v>25.0008017407731</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.09102278418953</v>
+        <v>-5.883303126328506</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.09102280724181</v>
+        <v>19.57003487711557</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.09102281430426</v>
+        <v>27.89120328997455</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.09102279208177</v>
+        <v>-6.837372569784243</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.09102281756702</v>
+        <v>11.15736197760986</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.09102282537485</v>
+        <v>18.65501975128422</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.09102279994822</v>
+        <v>4.968082181365446</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>27.09102282225265</v>
+        <v>19.42358903633688</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.09102275993858</v>
+        <v>0.4382065687562253</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.09102278187724</v>
+        <v>24.04142340458212</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.09102278841602</v>
+        <v>30.03409441702073</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.09102276808933</v>
+        <v>5.722274640036645</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.09102279234343</v>
+        <v>21.47370989569541</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.09102279957232</v>
+        <v>26.6911373994081</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.09102277497093</v>
+        <v>15.19190554445535</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.09102279619788</v>
+        <v>28.03111403395227</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.09102280252453</v>
+        <v>32.07374199443873</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.09102279329845</v>
+        <v>31.80326013420707</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.09102281659615</v>
+        <v>38.38198542314478</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.09102282383585</v>
+        <v>42.69637275658262</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.09102278891523</v>
+        <v>12.18437995645137</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.09102282230086</v>
+        <v>31.61373178328951</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>27.09102283225139</v>
+        <v>37.65198741345206</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.09102280117277</v>
+        <v>3.580015891382509</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.09102282463228</v>
+        <v>30.9694422349874</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.09102283164725</v>
+        <v>39.20988106586893</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.09102281061091</v>
+        <v>5.173978036683827</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.09102283654637</v>
+        <v>24.99743745037762</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.09102284430172</v>
+        <v>32.32696396212615</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.09102281878206</v>
+        <v>17.85154753692071</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.09102284148051</v>
+        <v>33.88629272226694</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.09102276295496</v>
+        <v>0.3052491269849504</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.09102278479318</v>
+        <v>24.19297695322895</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.09102279127803</v>
+        <v>30.23048883919938</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.09102277134935</v>
+        <v>6.32792716449892</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.09102279549241</v>
+        <v>22.42028730031547</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.09102280266168</v>
+        <v>27.67767457973951</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.09102277821183</v>
+        <v>15.74799129998926</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.09102279934159</v>
+        <v>28.88895113671675</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.09102280561606</v>
+        <v>32.96961570473098</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.09102279640913</v>
+        <v>32.92272879427684</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.09102281958562</v>
+        <v>39.57312283034547</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>27.09102282676682</v>
+        <v>43.9477632479804</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>27.09102279194494</v>
+        <v>13.08577238091909</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.09102282517772</v>
+        <v>32.90275322451191</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>27.09102283504619</v>
+        <v>38.98890515015095</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.09102280412439</v>
+        <v>4.032936589201025</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.09102282747522</v>
+        <v>31.73429956461067</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.09102283443334</v>
+        <v>40.03184665466458</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.09102281381542</v>
+        <v>6.458404478456771</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.09102283963073</v>
+        <v>26.65052975276458</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.09102284732322</v>
+        <v>34.03308037623557</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.09102282196077</v>
+        <v>19.09842310465442</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.09102284455407</v>
+        <v>35.46054377987281</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.09102274780522</v>
+        <v>-3.068104021562757</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.09102276961472</v>
+        <v>19.89876595913005</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.09102277624131</v>
+        <v>26.34206966965078</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.091022755026</v>
+        <v>2.132232993420967</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.0910227791373</v>
+        <v>17.33983175573701</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.09102278646327</v>
+        <v>23.0791516672842</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.0910227617272</v>
+        <v>10.96740649415017</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.09102278282917</v>
+        <v>23.33244457241858</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.09102278924079</v>
+        <v>27.8261447321222</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.09102278001195</v>
+        <v>26.25118739659926</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.09102280321644</v>
+        <v>32.645827844168</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.09102281055229</v>
+        <v>37.28489068922283</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.09102277603225</v>
+        <v>7.181855138315665</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.09102280922133</v>
+        <v>25.96997121811441</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.09102281930549</v>
+        <v>32.59299758813788</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.09102278824701</v>
+        <v>-1.022912705261444</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.09102281157034</v>
+        <v>25.67177843388377</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>27.09102281867879</v>
+        <v>34.33694837957916</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.09102279668815</v>
+        <v>0.3076758961445272</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.09102282247307</v>
+        <v>19.53364107646832</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.09102283033176</v>
+        <v>27.35840238810829</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.09102280466734</v>
+        <v>12.24414250024502</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.09102282723403</v>
+        <v>27.76445531288651</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.09102282908599</v>
+        <v>25.37122042973954</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.09102281838609</v>
+        <v>23.07091956744005</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.09102284296358</v>
+        <v>31.47501808606649</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.09102285078742</v>
+        <v>37.23457563689882</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.09102281285973</v>
+        <v>2.432656496141515</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.09102284794003</v>
+        <v>24.50007822063505</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.09102285868747</v>
+        <v>33.00756696511806</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.09102283731468</v>
+        <v>-2.583517783220362</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.09102285974798</v>
+        <v>24.31032288788564</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.09102286652294</v>
+        <v>33.33582908711322</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.09102284629873</v>
+        <v>-2.803565061762658</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.09102287109968</v>
+        <v>16.84810014712417</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.09102287858968</v>
+        <v>25.02859508713919</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.09102285481435</v>
+        <v>10.96729272530548</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.09102287651989</v>
+        <v>26.89142057452441</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.09102288307507</v>
+        <v>33.41711010625085</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.09102287181723</v>
+        <v>33.48928669048493</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>27.09102289570779</v>
+        <v>42.59470633867174</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.09102290312511</v>
+        <v>49.00122690543586</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.09102286463806</v>
+        <v>11.1084459244612</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.09102289877643</v>
+        <v>35.09812427658352</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.09102290908637</v>
+        <v>44.42102188429381</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.09102284826792</v>
+        <v>39.69111050165553</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.09102283739797</v>
+        <v>38.95353679182192</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.0910228623383</v>
+        <v>47.85826307935224</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>27.09102287011162</v>
+        <v>53.59414937307085</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>27.09102283122191</v>
+        <v>16.82601105328379</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>27.09102286692192</v>
+        <v>41.03078699259105</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.09102287759712</v>
+        <v>49.3555602826023</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>27.0910228544232</v>
+        <v>9.675289421329625</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.09102287724699</v>
+        <v>38.53055690330541</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.09102288397065</v>
+        <v>47.41752793435538</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.09102286489734</v>
+        <v>12.22221214532162</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>27.09102289012998</v>
+        <v>33.72446969280414</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.09102289756327</v>
+        <v>41.67805481625351</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.09102287371488</v>
+        <v>26.94868140768329</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.09102289579824</v>
+        <v>44.47587195280105</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.09102290230377</v>
+        <v>50.80809883350771</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>27.09102289086927</v>
+        <v>52.51939492362797</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>27.09102291510629</v>
+        <v>62.10336932649911</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>27.09102292246926</v>
+        <v>68.47339365698757</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.09102288304388</v>
+        <v>28.59469147705794</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.09102291777648</v>
+        <v>54.746656460758</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.09102292800835</v>
+        <v>63.82333900657801</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.09102285128646</v>
+        <v>41.31524342662934</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.0910228404409</v>
+        <v>40.74566788542448</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.09102286524999</v>
+        <v>49.7116957089723</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.09102287296135</v>
+        <v>55.51721794227663</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.09102283418972</v>
+        <v>18.41627470056098</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.09102286972436</v>
+        <v>43.04075995415032</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.09102288031302</v>
+        <v>51.42776304723873</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.09102285703015</v>
+        <v>11.19074646041495</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>27.09102287974838</v>
+        <v>40.36229777773211</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.09102288641584</v>
+        <v>49.28025975247004</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.09102286773662</v>
+        <v>14.62643427914065</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.09102289285256</v>
+        <v>36.50006594111534</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.09102290022372</v>
+        <v>44.48029335412123</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.09102287652413</v>
+        <v>29.33277762445877</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.09102289850535</v>
+        <v>47.19016791858805</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.09102290495651</v>
+        <v>53.54996412736575</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.09102289354967</v>
+        <v>55.43690822458353</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.09102291765903</v>
+        <v>65.07595958838181</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.09102292496157</v>
+        <v>71.50184639963402</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.09102288566058</v>
+        <v>31.28991115835818</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.09102292023254</v>
+        <v>57.86416171918813</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.09102293037889</v>
+        <v>66.97367101574608</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.09102283411189</v>
+        <v>33.99478631896129</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.09102282324695</v>
+        <v>31.82364836185912</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.09102284808942</v>
+        <v>40.54233727047146</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.09102285596596</v>
+        <v>46.61752520199194</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>27.09102281749662</v>
+        <v>10.33318983723167</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.0910228529894</v>
+        <v>33.83269555831394</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.09102286380685</v>
+        <v>42.71483054922602</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>27.091022841846</v>
+        <v>5.070036453073545</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.09102286454334</v>
+        <v>33.25035021687875</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.09102287136021</v>
+        <v>42.57171218343301</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.09102285137043</v>
+        <v>7.258280508674552</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.09102287646327</v>
+        <v>28.1885606142939</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.09102288399961</v>
+        <v>36.6457706216401</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.09102286000417</v>
+        <v>21.25609403261513</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.09102288196518</v>
+        <v>38.28703860293624</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.0910228885609</v>
+        <v>45.05363376217927</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>27.09102287713218</v>
+        <v>45.30586213648637</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>27.09102290128013</v>
+        <v>54.7333999084025</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>27.09102290874519</v>
+        <v>61.4331981109522</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.09102286971525</v>
+        <v>21.97395859300974</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>27.09102290425541</v>
+        <v>47.44848012547941</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.09102291462913</v>
+        <v>57.09164718330045</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>27.09102273487748</v>
+        <v>-1.358867936904577</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.09102275768524</v>
+        <v>22.45252517008851</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.09102276457563</v>
+        <v>28.81737422465125</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.09102274124394</v>
+        <v>1.819564115856668</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.09102276645886</v>
+        <v>17.57848082031246</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.09102277407647</v>
+        <v>23.22455250820567</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.09102274822543</v>
+        <v>11.79119464003402</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.09102277029328</v>
+        <v>24.58545724434338</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.09102277696014</v>
+        <v>28.96950632732661</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.09102276725983</v>
+        <v>26.69198702998321</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.09102279151083</v>
+        <v>33.44357771088933</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.09102279913116</v>
+        <v>37.92263997837715</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.09102276330789</v>
+        <v>6.528060042442423</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.09102279801609</v>
+        <v>25.98015197187776</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.09102280850169</v>
+        <v>32.47760066696516</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.09102277651262</v>
+        <v>-1.732950421985571</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.09102280089771</v>
+        <v>25.83504091132319</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.09102280829073</v>
+        <v>34.39729463526528</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.09102278413412</v>
+        <v>-2.776701907552329</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.09102281109286</v>
+        <v>17.01760629937908</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.09102281926615</v>
+        <v>24.72878030931371</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>27.09102279245653</v>
+        <v>10.37268173354146</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.09102281605054</v>
+        <v>26.3307524083653</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.09102275109329</v>
+        <v>5.614522078459771</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.09102277430564</v>
+        <v>31.27438367264229</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.09102278114831</v>
+        <v>37.44704438156127</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.09102275896608</v>
+        <v>11.08396735499164</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>27.0910227846283</v>
+        <v>28.5766023668583</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.09102279219315</v>
+        <v>33.93795190483731</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.09102276623505</v>
+        <v>21.78515855792127</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.09102278869437</v>
+        <v>36.08555034656192</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>27.09102279531505</v>
+        <v>40.22405159129659</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.09102278546415</v>
+        <v>39.59970023253417</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.09102281007618</v>
+        <v>46.86138456529895</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>27.09102281764736</v>
+        <v>51.27466000040767</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.09102278088031</v>
+        <v>17.9545747912012</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.09102281620421</v>
+        <v>39.43286677549999</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.09102282661719</v>
+        <v>45.62245544111376</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.09102279426634</v>
+        <v>8.082903604813861</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.09102281908039</v>
+        <v>37.70608710135288</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.09102282642417</v>
+        <v>46.16699422458083</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.09102280350592</v>
+        <v>9.666884767032613</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>27.09102283093889</v>
+        <v>31.40449599316673</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.09102283905774</v>
+        <v>38.92411433537479</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.09102281214228</v>
+        <v>23.75079827031187</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.09102283615134</v>
+        <v>41.38793136212114</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>27.09102275427665</v>
+        <v>5.341097729835724</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.09102277738204</v>
+        <v>31.29641837072235</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.09102278416868</v>
+        <v>37.51110668865249</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.09102276240999</v>
+        <v>11.57108335496362</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>27.09102278795396</v>
+        <v>29.41757485947911</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.09102279545687</v>
+        <v>34.81616766620184</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.09102276965681</v>
+        <v>22.21460612269</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.09102279201263</v>
+        <v>36.82870103609256</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.0910227985791</v>
+        <v>41.00290063300466</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.09102278874954</v>
+        <v>40.61455855986962</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>27.09102281323297</v>
+        <v>47.95084113087698</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>27.09102282074367</v>
+        <v>52.42539128290709</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.09102278408158</v>
+        <v>18.74701530513775</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.09102281924271</v>
+        <v>40.62810048499952</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.09102282957042</v>
+        <v>46.86252156673741</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>27.09102279738279</v>
+        <v>8.41332228365903</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.09102282208121</v>
+        <v>38.35991820277562</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.09102282936584</v>
+        <v>46.87590687212069</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.09102280689253</v>
+        <v>10.85497536800042</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.09102283419766</v>
+        <v>32.97493011624989</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.09102284225112</v>
+        <v>40.54588940832021</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.09102281549964</v>
+        <v>24.89363335100172</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.09102283939682</v>
+        <v>42.87078484349993</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.09102273835809</v>
+        <v>1.8073089423076</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.09102276143449</v>
+        <v>26.78244660470413</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.09102276836907</v>
+        <v>33.4269373490628</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.09102274525429</v>
+        <v>7.206071031062699</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.09102277076621</v>
+        <v>24.1102951242235</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.09102277843267</v>
+        <v>30.01824976683326</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.09102275233773</v>
+        <v>17.21823703260241</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.09102277466551</v>
+        <v>31.00544699261844</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.09102278137511</v>
+        <v>35.61598831964071</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.09102277152438</v>
+        <v>33.65231245511944</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.09102279603785</v>
+        <v>40.7163972318444</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.09102280370939</v>
+        <v>45.46796215385075</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.09102276736456</v>
+        <v>12.60124829231204</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.09102280248158</v>
+        <v>33.38675963413608</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.09102281303441</v>
+        <v>40.18812907420826</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.09102278069047</v>
+        <v>3.095719654497163</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.09102280536132</v>
+        <v>31.97472889707305</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>27.09102281280294</v>
+        <v>40.88134767741148</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.09102278888258</v>
+        <v>4.415213639478914</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.09102281615723</v>
+        <v>25.50925429875661</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.09102282438425</v>
+        <v>33.54868706869851</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.09102279732124</v>
+        <v>17.69729229610567</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.09102282119175</v>
+        <v>34.78043570359377</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.09102282320372</v>
+        <v>32.42510928383586</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.09102281183453</v>
+        <v>29.86765096731062</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.09102283779003</v>
+        <v>39.01395232836609</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.09102284597377</v>
+        <v>44.91541707422864</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.09102280606334</v>
+        <v>7.26972886122309</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.09102284317189</v>
+        <v>31.46375982417455</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.09102285442238</v>
+        <v>40.19341916082039</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.09102283327305</v>
+        <v>1.223253107586011</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.09102285700924</v>
+        <v>30.33462890284946</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.09102286409999</v>
+        <v>39.66577537506363</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.09102284213007</v>
+        <v>0.8662807821885217</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>27.09102286837142</v>
+        <v>22.43892025763911</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.09102287621053</v>
+        <v>30.89209995864372</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.09102285114944</v>
+        <v>16.05786153698873</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.0910228741156</v>
+        <v>33.59497138772247</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.09102288097631</v>
+        <v>40.31590522842046</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.09102286903232</v>
+        <v>40.19390877335555</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.09102289426742</v>
+        <v>50.10566177264283</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.09102290202594</v>
+        <v>56.70338622187627</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.09102286150529</v>
+        <v>15.78606049738951</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.09102289762636</v>
+        <v>42.04332079848669</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.09102290841686</v>
+        <v>51.65737140006529</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.09102284325687</v>
+        <v>47.31885070491335</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.09102283170562</v>
+        <v>46.38855687160633</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.09102285804347</v>
+        <v>56.06984053182998</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>27.09102286617547</v>
+        <v>61.94013562638988</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>27.09102282525338</v>
+        <v>22.21401342853105</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.09102286301471</v>
+        <v>48.67911564840976</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.09102287419026</v>
+        <v>57.19955659705586</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.09102285117762</v>
+        <v>13.96397514394396</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.09102287532537</v>
+        <v>45.15736320998195</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.09102288236248</v>
+        <v>54.32361893442395</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.0910228615955</v>
+        <v>16.46982484514425</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.09102288829184</v>
+        <v>40.0090300468086</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>27.09102289607166</v>
+        <v>48.20559198630902</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>27.09102287092635</v>
+        <v>32.68010180364348</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>27.09102289429072</v>
+        <v>51.92160876759058</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>27.09102290109955</v>
+        <v>58.42317333192335</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>27.09102288896714</v>
+        <v>60.01265480876974</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>27.09102291456771</v>
+        <v>70.43707900395989</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>27.09102292226996</v>
+        <v>76.98950553821859</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.09102288076226</v>
+        <v>33.97241619652926</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>27.09102291750962</v>
+        <v>62.52728063225064</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.0910229282185</v>
+        <v>71.86172764474674</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>27.09102284644512</v>
+        <v>48.85005226888651</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.09102283492054</v>
+        <v>48.0996471202507</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.09102286111927</v>
+        <v>57.84449854210845</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.09102286918712</v>
+        <v>63.78597966679551</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>27.09102282839017</v>
+        <v>23.71974423658086</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.09102286597554</v>
+        <v>50.62051298987587</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.09102287706108</v>
+        <v>59.20116784408536</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.091022853928</v>
+        <v>15.40812870232526</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>27.09102287796349</v>
+        <v>46.93000871282355</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.09102288494205</v>
+        <v>56.12273816295449</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.09102286459404</v>
+        <v>18.83369981005587</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.09102289116626</v>
+        <v>42.75860792732458</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.09102289888135</v>
+        <v>50.97751872823874</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.09102287389118</v>
+        <v>35.01654613332512</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.09102289714693</v>
+        <v>54.60148652596574</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.0910229038991</v>
+        <v>61.12688646919745</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.09102289179675</v>
+        <v>62.90625065623779</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.09102291726212</v>
+        <v>73.38794771389189</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.09102292490166</v>
+        <v>79.99658355817097</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.0910228835258</v>
+        <v>36.63963576265024</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.09102292010232</v>
+        <v>65.63347405098406</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.09102293072209</v>
+        <v>74.99583239616669</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.09102282839195</v>
+        <v>41.15734646131225</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.09102281684822</v>
+        <v>38.74300917143159</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.09102284308275</v>
+        <v>48.22543278895414</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.09102285132248</v>
+        <v>54.44975266934865</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.0910228108433</v>
+        <v>15.25048281044074</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.09102284838671</v>
+        <v>40.95715395173393</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.09102285971115</v>
+        <v>50.06202757851256</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.09102283796032</v>
+        <v>8.973053336901842</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.09102286197504</v>
+        <v>39.44496986413533</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.09102286910992</v>
+        <v>49.06814471115057</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.09102284738011</v>
+        <v>11.11160240325034</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.09102287392938</v>
+        <v>34.03590170420681</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.09102288181728</v>
+        <v>42.76246324002536</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.09102285652165</v>
+        <v>26.53549022220235</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.09102287975731</v>
+        <v>45.24381642847848</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.09102288666072</v>
+        <v>52.20175140782042</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>27.09102287453631</v>
+        <v>52.27970604598514</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>27.09102290004268</v>
+        <v>62.53649368360259</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.09102290785175</v>
+        <v>69.43252233657199</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>27.09102286676083</v>
+        <v>26.87440438240229</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>27.09102290330576</v>
+        <v>54.70231084218323</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.09102291416341</v>
+        <v>64.63227771186496</v>
       </c>
     </row>
   </sheetData>
